--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.00515649168351</v>
+        <v>14.00515649168352</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.59558147025149</v>
+        <v>34.59558147025143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5122793762821</v>
+        <v>19.51227937628213</v>
       </c>
       <c r="C3">
-        <v>10.68310892558731</v>
+        <v>10.68310892558753</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.96375486668247</v>
+        <v>12.96375486668257</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.81305625132401</v>
+        <v>32.8130562513241</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.26988739034926</v>
+        <v>16.26988739034934</v>
       </c>
       <c r="K3">
-        <v>13.95180986328946</v>
+        <v>13.95180986328953</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52662967884987</v>
+        <v>18.52662967884986</v>
       </c>
       <c r="C4">
-        <v>10.192972352709</v>
+        <v>10.19297235270898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29618534433065</v>
+        <v>12.29618534433067</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.71072360249322</v>
+        <v>31.71072360249327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.47523377566987</v>
+        <v>15.47523377566984</v>
       </c>
       <c r="K4">
         <v>13.25438769499037</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11347855725495</v>
+        <v>18.11347855725496</v>
       </c>
       <c r="C5">
-        <v>9.987879585480709</v>
+        <v>9.987879585480682</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.0442298985945</v>
+        <v>12.04422989859451</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>31.25970918698361</v>
+        <v>31.25970918698355</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.14215940705331</v>
+        <v>15.14215940705336</v>
       </c>
       <c r="K5">
-        <v>12.96245325877908</v>
+        <v>12.96245325877907</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.04417397654989</v>
+        <v>18.04417397654992</v>
       </c>
       <c r="C6">
-        <v>9.953497418708695</v>
+        <v>9.953497418708974</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.0035540800382</v>
+        <v>12.00355408003821</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>31.18471655933126</v>
+        <v>31.18471655933121</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.08628831942677</v>
+        <v>15.08628831942692</v>
       </c>
       <c r="K6">
-        <v>12.91350508977447</v>
+        <v>12.91350508977455</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52110463035268</v>
+        <v>18.52110463035258</v>
       </c>
       <c r="C7">
-        <v>10.19022823565841</v>
+        <v>10.19022823565844</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.29244804661558</v>
+        <v>12.29244804661555</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.70464807115518</v>
+        <v>31.70464807115504</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.47077952561199</v>
+        <v>15.47077952561194</v>
       </c>
       <c r="K7">
         <v>13.25048212777844</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52550407748069</v>
+        <v>20.5255040774807</v>
       </c>
       <c r="C8">
-        <v>11.18813914732224</v>
+        <v>11.1881391473222</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.65179268910057</v>
+        <v>13.65179268910068</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.98266540444688</v>
+        <v>33.98266540444691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.08684514967053</v>
+        <v>17.08684514967052</v>
       </c>
       <c r="K8">
-        <v>14.67019674277266</v>
+        <v>14.67019674277272</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11485175951085</v>
+        <v>24.11485175951083</v>
       </c>
       <c r="C9">
-        <v>12.98607544128889</v>
+        <v>12.98607544128877</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>16.10457838351441</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.38621802295063</v>
+        <v>38.38621802295059</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.98171842929242</v>
+        <v>19.98171842929241</v>
       </c>
       <c r="K9">
-        <v>17.22784046704852</v>
+        <v>17.22784046704848</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56477727085452</v>
+        <v>26.56477727085449</v>
       </c>
       <c r="C10">
-        <v>14.22089213998727</v>
+        <v>14.2208921399874</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.79352703242367</v>
+        <v>17.79352703242363</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.59102562804584</v>
+        <v>41.59102562804608</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.95860143586035</v>
+        <v>21.95860143586038</v>
       </c>
       <c r="K10">
-        <v>18.9860950257328</v>
+        <v>18.98609502573277</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64421304393643</v>
+        <v>27.64421304393648</v>
       </c>
       <c r="C11">
-        <v>14.76694786565284</v>
+        <v>14.76694786565244</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54176996309977</v>
+        <v>18.54176996309982</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>43.04728181718458</v>
+        <v>43.04728181718463</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.82994003411937</v>
+        <v>22.82994003411928</v>
       </c>
       <c r="K11">
-        <v>19.76431861889822</v>
+        <v>19.7643186188982</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.04847816842563</v>
+        <v>28.0484781684257</v>
       </c>
       <c r="C12">
-        <v>14.97177880397424</v>
+        <v>14.97177880397421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.82267040606017</v>
+        <v>18.8226704060602</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>43.599138517635</v>
+        <v>43.59913851763525</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.15632799936429</v>
+        <v>23.15632799936436</v>
       </c>
       <c r="K12">
         <v>20.05636228620527</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96160262006157</v>
+        <v>27.96160262006169</v>
       </c>
       <c r="C13">
-        <v>14.92774599826414</v>
+        <v>14.9277459982641</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.76227423984033</v>
+        <v>18.76227423984037</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.48025589159423</v>
+        <v>43.4802558915943</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.08618524479293</v>
+        <v>23.08618524479297</v>
       </c>
       <c r="K13">
         <v>19.99357533505203</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6775587871302</v>
+        <v>27.67755878713021</v>
       </c>
       <c r="C14">
-        <v>14.78383653550183</v>
+        <v>14.78383653550201</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.56492596138068</v>
+        <v>18.56492596138071</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>43.09267089138367</v>
+        <v>43.0926708913839</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.85686084367051</v>
+        <v>22.85686084367054</v>
       </c>
       <c r="K14">
-        <v>19.7883955020595</v>
+        <v>19.78839550205956</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50300626954987</v>
+        <v>27.50300626954991</v>
       </c>
       <c r="C15">
-        <v>14.69544407538887</v>
+        <v>14.6954440753889</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.44374074291309</v>
+        <v>18.44374074291304</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>42.85533904533312</v>
+        <v>42.85533904533324</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.71594289967836</v>
+        <v>22.7159428996784</v>
       </c>
       <c r="K15">
-        <v>19.66238631736717</v>
+        <v>19.66238631736714</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49357303140829</v>
+        <v>26.49357303140826</v>
       </c>
       <c r="C16">
-        <v>14.18491562517981</v>
+        <v>14.18491562517987</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.74425995613875</v>
+        <v>17.74425995613879</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.49587296811612</v>
+        <v>41.49587296811624</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.90113175625883</v>
+        <v>21.9011317562588</v>
       </c>
       <c r="K16">
-        <v>18.93483855133227</v>
+        <v>18.9348385513323</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>25.86570337454219</v>
       </c>
       <c r="C17">
-        <v>13.86790987658222</v>
+        <v>13.86790987658216</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.31030368749562</v>
+        <v>17.3103036874956</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>40.66185786056584</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.39440982503847</v>
+        <v>21.39440982503845</v>
       </c>
       <c r="K17">
-        <v>18.483276297754</v>
+        <v>18.48327629775399</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.50123311998603</v>
+        <v>25.50123311998597</v>
       </c>
       <c r="C18">
-        <v>13.68408058984231</v>
+        <v>13.68408058984238</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.05878416197445</v>
+        <v>17.05878416197441</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.18195144571387</v>
+        <v>40.18195144571379</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.10029458355302</v>
+        <v>21.100294583553</v>
       </c>
       <c r="K18">
-        <v>18.22148381168174</v>
+        <v>18.2214838116817</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37724152233053</v>
+        <v>25.37724152233049</v>
       </c>
       <c r="C19">
-        <v>13.62157380657519</v>
+        <v>13.62157380657516</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.97328200306073</v>
+        <v>16.97328200306065</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>40.01941239690942</v>
+        <v>40.01941239690939</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>21.0002424131447</v>
       </c>
       <c r="K19">
-        <v>18.13247789505962</v>
+        <v>18.13247789505958</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>25.93288278376723</v>
       </c>
       <c r="C20">
-        <v>13.90180847271928</v>
+        <v>13.90180847271927</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.35669474562361</v>
+        <v>17.35669474562363</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>40.75065723489637</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.44862373267834</v>
+        <v>21.44862373267833</v>
       </c>
       <c r="K20">
-        <v>18.53155661601009</v>
+        <v>18.5315566160101</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76110649935637</v>
+        <v>27.76110649935631</v>
       </c>
       <c r="C21">
-        <v>14.82615640723388</v>
+        <v>14.82615640723408</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.62295432416375</v>
+        <v>18.62295432416371</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.20649689582177</v>
+        <v>43.2064968958216</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.9243118705593</v>
+        <v>22.92431187055931</v>
       </c>
       <c r="K21">
-        <v>19.84872976538504</v>
+        <v>19.84872976538503</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.93008686557594</v>
+        <v>28.93008686557598</v>
       </c>
       <c r="C22">
-        <v>15.41909831451279</v>
+        <v>15.41909831451269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.43655336762003</v>
+        <v>19.43655336762</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>44.81434071931589</v>
+        <v>44.81434071931592</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.86822386879573</v>
+        <v>23.86822386879575</v>
       </c>
       <c r="K22">
-        <v>20.69438831581357</v>
+        <v>20.69438831581354</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30834171969024</v>
+        <v>28.30834171969006</v>
       </c>
       <c r="C23">
-        <v>15.10354037182754</v>
+        <v>15.10354037182747</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.0034316901073</v>
+        <v>19.00343169010727</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>43.95567917782942</v>
+        <v>43.95567917782916</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.36614952850364</v>
+        <v>23.3661495285035</v>
       </c>
       <c r="K23">
-        <v>20.24426235797321</v>
+        <v>20.24426235797317</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90252191328536</v>
+        <v>25.9025219132853</v>
       </c>
       <c r="C24">
-        <v>13.88648785608438</v>
+        <v>13.88648785608456</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.33572771053694</v>
+        <v>17.3357277105369</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>40.71051239130153</v>
+        <v>40.71051239130139</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.42412236078665</v>
+        <v>21.42412236078659</v>
       </c>
       <c r="K24">
         <v>18.50973591782849</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.178381706242</v>
+        <v>23.17838170624197</v>
       </c>
       <c r="C25">
-        <v>12.51570088566652</v>
+        <v>12.51570088566662</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.46224021418668</v>
+        <v>15.46224021418665</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.20141548775374</v>
+        <v>37.20141548775366</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>19.22629657520867</v>
       </c>
       <c r="K25">
-        <v>16.55853362695582</v>
+        <v>16.55853362695588</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.00515649168352</v>
+        <v>14.00515649168351</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.59558147025143</v>
+        <v>34.59558147025149</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51227937628213</v>
+        <v>19.5122793762821</v>
       </c>
       <c r="C3">
-        <v>10.68310892558753</v>
+        <v>10.68310892558731</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.96375486668257</v>
+        <v>12.96375486668247</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.8130562513241</v>
+        <v>32.81305625132401</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.26988739034934</v>
+        <v>16.26988739034926</v>
       </c>
       <c r="K3">
-        <v>13.95180986328953</v>
+        <v>13.95180986328946</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52662967884986</v>
+        <v>18.52662967884987</v>
       </c>
       <c r="C4">
-        <v>10.19297235270898</v>
+        <v>10.192972352709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29618534433067</v>
+        <v>12.29618534433065</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.71072360249327</v>
+        <v>31.71072360249322</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.47523377566984</v>
+        <v>15.47523377566987</v>
       </c>
       <c r="K4">
         <v>13.25438769499037</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11347855725496</v>
+        <v>18.11347855725495</v>
       </c>
       <c r="C5">
-        <v>9.987879585480682</v>
+        <v>9.987879585480709</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.04422989859451</v>
+        <v>12.0442298985945</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.25970918698355</v>
+        <v>31.25970918698361</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.14215940705336</v>
+        <v>15.14215940705331</v>
       </c>
       <c r="K5">
-        <v>12.96245325877907</v>
+        <v>12.96245325877908</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.04417397654992</v>
+        <v>18.04417397654989</v>
       </c>
       <c r="C6">
-        <v>9.953497418708974</v>
+        <v>9.953497418708695</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.00355408003821</v>
+        <v>12.0035540800382</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.18471655933121</v>
+        <v>31.18471655933126</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.08628831942692</v>
+        <v>15.08628831942677</v>
       </c>
       <c r="K6">
-        <v>12.91350508977455</v>
+        <v>12.91350508977447</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52110463035258</v>
+        <v>18.52110463035268</v>
       </c>
       <c r="C7">
-        <v>10.19022823565844</v>
+        <v>10.19022823565841</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.29244804661555</v>
+        <v>12.29244804661558</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.70464807115504</v>
+        <v>31.70464807115518</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.47077952561194</v>
+        <v>15.47077952561199</v>
       </c>
       <c r="K7">
         <v>13.25048212777844</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5255040774807</v>
+        <v>20.52550407748069</v>
       </c>
       <c r="C8">
-        <v>11.1881391473222</v>
+        <v>11.18813914732224</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.65179268910068</v>
+        <v>13.65179268910057</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.98266540444691</v>
+        <v>33.98266540444688</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.08684514967052</v>
+        <v>17.08684514967053</v>
       </c>
       <c r="K8">
-        <v>14.67019674277272</v>
+        <v>14.67019674277266</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11485175951083</v>
+        <v>24.11485175951085</v>
       </c>
       <c r="C9">
-        <v>12.98607544128877</v>
+        <v>12.98607544128889</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>16.10457838351441</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.38621802295059</v>
+        <v>38.38621802295063</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.98171842929241</v>
+        <v>19.98171842929242</v>
       </c>
       <c r="K9">
-        <v>17.22784046704848</v>
+        <v>17.22784046704852</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56477727085449</v>
+        <v>26.56477727085452</v>
       </c>
       <c r="C10">
-        <v>14.2208921399874</v>
+        <v>14.22089213998727</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.79352703242363</v>
+        <v>17.79352703242367</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.59102562804608</v>
+        <v>41.59102562804584</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.95860143586038</v>
+        <v>21.95860143586035</v>
       </c>
       <c r="K10">
-        <v>18.98609502573277</v>
+        <v>18.9860950257328</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64421304393648</v>
+        <v>27.64421304393643</v>
       </c>
       <c r="C11">
-        <v>14.76694786565244</v>
+        <v>14.76694786565284</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54176996309982</v>
+        <v>18.54176996309977</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.04728181718463</v>
+        <v>43.04728181718458</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.82994003411928</v>
+        <v>22.82994003411937</v>
       </c>
       <c r="K11">
-        <v>19.7643186188982</v>
+        <v>19.76431861889822</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.0484781684257</v>
+        <v>28.04847816842563</v>
       </c>
       <c r="C12">
-        <v>14.97177880397421</v>
+        <v>14.97177880397424</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.8226704060602</v>
+        <v>18.82267040606017</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.59913851763525</v>
+        <v>43.599138517635</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.15632799936436</v>
+        <v>23.15632799936429</v>
       </c>
       <c r="K12">
         <v>20.05636228620527</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96160262006169</v>
+        <v>27.96160262006157</v>
       </c>
       <c r="C13">
-        <v>14.9277459982641</v>
+        <v>14.92774599826414</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.76227423984037</v>
+        <v>18.76227423984033</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.4802558915943</v>
+        <v>43.48025589159423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.08618524479297</v>
+        <v>23.08618524479293</v>
       </c>
       <c r="K13">
         <v>19.99357533505203</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67755878713021</v>
+        <v>27.6775587871302</v>
       </c>
       <c r="C14">
-        <v>14.78383653550201</v>
+        <v>14.78383653550183</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.56492596138071</v>
+        <v>18.56492596138068</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.0926708913839</v>
+        <v>43.09267089138367</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.85686084367054</v>
+        <v>22.85686084367051</v>
       </c>
       <c r="K14">
-        <v>19.78839550205956</v>
+        <v>19.7883955020595</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50300626954991</v>
+        <v>27.50300626954987</v>
       </c>
       <c r="C15">
-        <v>14.6954440753889</v>
+        <v>14.69544407538887</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.44374074291304</v>
+        <v>18.44374074291309</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.85533904533324</v>
+        <v>42.85533904533312</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.7159428996784</v>
+        <v>22.71594289967836</v>
       </c>
       <c r="K15">
-        <v>19.66238631736714</v>
+        <v>19.66238631736717</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49357303140826</v>
+        <v>26.49357303140829</v>
       </c>
       <c r="C16">
-        <v>14.18491562517987</v>
+        <v>14.18491562517981</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.74425995613879</v>
+        <v>17.74425995613875</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.49587296811624</v>
+        <v>41.49587296811612</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.9011317562588</v>
+        <v>21.90113175625883</v>
       </c>
       <c r="K16">
-        <v>18.9348385513323</v>
+        <v>18.93483855133227</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>25.86570337454219</v>
       </c>
       <c r="C17">
-        <v>13.86790987658216</v>
+        <v>13.86790987658222</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.3103036874956</v>
+        <v>17.31030368749562</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>40.66185786056584</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.39440982503845</v>
+        <v>21.39440982503847</v>
       </c>
       <c r="K17">
-        <v>18.48327629775399</v>
+        <v>18.483276297754</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.50123311998597</v>
+        <v>25.50123311998603</v>
       </c>
       <c r="C18">
-        <v>13.68408058984238</v>
+        <v>13.68408058984231</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.05878416197441</v>
+        <v>17.05878416197445</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.18195144571379</v>
+        <v>40.18195144571387</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.100294583553</v>
+        <v>21.10029458355302</v>
       </c>
       <c r="K18">
-        <v>18.2214838116817</v>
+        <v>18.22148381168174</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37724152233049</v>
+        <v>25.37724152233053</v>
       </c>
       <c r="C19">
-        <v>13.62157380657516</v>
+        <v>13.62157380657519</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.97328200306065</v>
+        <v>16.97328200306073</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>40.01941239690939</v>
+        <v>40.01941239690942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>21.0002424131447</v>
       </c>
       <c r="K19">
-        <v>18.13247789505958</v>
+        <v>18.13247789505962</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>25.93288278376723</v>
       </c>
       <c r="C20">
-        <v>13.90180847271927</v>
+        <v>13.90180847271928</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.35669474562363</v>
+        <v>17.35669474562361</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>40.75065723489637</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.44862373267833</v>
+        <v>21.44862373267834</v>
       </c>
       <c r="K20">
-        <v>18.5315566160101</v>
+        <v>18.53155661601009</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76110649935631</v>
+        <v>27.76110649935637</v>
       </c>
       <c r="C21">
-        <v>14.82615640723408</v>
+        <v>14.82615640723388</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.62295432416371</v>
+        <v>18.62295432416375</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.2064968958216</v>
+        <v>43.20649689582177</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.92431187055931</v>
+        <v>22.9243118705593</v>
       </c>
       <c r="K21">
-        <v>19.84872976538503</v>
+        <v>19.84872976538504</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.93008686557598</v>
+        <v>28.93008686557594</v>
       </c>
       <c r="C22">
-        <v>15.41909831451269</v>
+        <v>15.41909831451279</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.43655336762</v>
+        <v>19.43655336762003</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.81434071931592</v>
+        <v>44.81434071931589</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.86822386879575</v>
+        <v>23.86822386879573</v>
       </c>
       <c r="K22">
-        <v>20.69438831581354</v>
+        <v>20.69438831581357</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30834171969006</v>
+        <v>28.30834171969024</v>
       </c>
       <c r="C23">
-        <v>15.10354037182747</v>
+        <v>15.10354037182754</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.00343169010727</v>
+        <v>19.0034316901073</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.95567917782916</v>
+        <v>43.95567917782942</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.3661495285035</v>
+        <v>23.36614952850364</v>
       </c>
       <c r="K23">
-        <v>20.24426235797317</v>
+        <v>20.24426235797321</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.9025219132853</v>
+        <v>25.90252191328536</v>
       </c>
       <c r="C24">
-        <v>13.88648785608456</v>
+        <v>13.88648785608438</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.3357277105369</v>
+        <v>17.33572771053694</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.71051239130139</v>
+        <v>40.71051239130153</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.42412236078659</v>
+        <v>21.42412236078665</v>
       </c>
       <c r="K24">
         <v>18.50973591782849</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.17838170624197</v>
+        <v>23.178381706242</v>
       </c>
       <c r="C25">
-        <v>12.51570088566662</v>
+        <v>12.51570088566652</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.46224021418665</v>
+        <v>15.46224021418668</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.20141548775366</v>
+        <v>37.20141548775374</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>19.22629657520867</v>
       </c>
       <c r="K25">
-        <v>16.55853362695588</v>
+        <v>16.55853362695582</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04481633103928</v>
+        <v>21.04376910985778</v>
       </c>
       <c r="C2">
-        <v>11.44742712560769</v>
+        <v>11.44599680447401</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.00515649168351</v>
+        <v>14.0049579223505</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.59558147025149</v>
+        <v>33.51879476088278</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.59426867543944</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.50559684196066</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.03898488272379</v>
+        <v>17.50435937050588</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.03851121533936</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5122793762821</v>
+        <v>19.51161157632568</v>
       </c>
       <c r="C3">
-        <v>10.68310892558731</v>
+        <v>10.68213889860107</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.96375486668247</v>
+        <v>12.9636356784753</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.81305625132401</v>
+        <v>31.52108277187321</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.81343052708909</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.26988739034926</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.95180986328946</v>
+        <v>16.2690665620716</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13.95150796469101</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52662967884987</v>
+        <v>18.52617698256497</v>
       </c>
       <c r="C4">
-        <v>10.192972352709</v>
+        <v>10.19228495541227</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29618534433065</v>
+        <v>12.29610765122117</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.71072360249322</v>
+        <v>30.27245685745942</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.71230370167612</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.47523377566987</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.25438769499037</v>
+        <v>15.47466083844085</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.25418256778063</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11347855725495</v>
+        <v>18.11310952330981</v>
       </c>
       <c r="C5">
-        <v>9.987879585480709</v>
+        <v>9.987307975848228</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.0442298985945</v>
+        <v>12.04411799366507</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.25970918698361</v>
+        <v>29.75823695191595</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>31.26182448977083</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.14215940705331</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12.96245325877908</v>
+        <v>15.14168608911355</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12.9622857545802</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.04417397654989</v>
+        <v>18.0438186060245</v>
       </c>
       <c r="C6">
-        <v>9.953497418708695</v>
+        <v>9.952945090081302</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.0035540800382</v>
+        <v>12.0034461221829</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.18471655933126</v>
+        <v>29.67253201663987</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>31.18692340589051</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.08628831942677</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.91350508977447</v>
+        <v>15.08583147520539</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.91334373339563</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52110463035268</v>
+        <v>18.52065307795677</v>
       </c>
       <c r="C7">
-        <v>10.19022823565841</v>
+        <v>10.18954239663725</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.29244804661558</v>
+        <v>12.29237056682797</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.70464807115518</v>
+        <v>30.26554346642895</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.7062352095934</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.47077952561199</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.25048212777844</v>
+        <v>15.47020793679513</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.25027751484495</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52550407748069</v>
+        <v>20.52459172098803</v>
       </c>
       <c r="C8">
-        <v>11.18813914732224</v>
+        <v>11.18686791146083</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.65179268910057</v>
+        <v>13.65162318902073</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.98266540444688</v>
+        <v>32.83459899761456</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.98189975792122</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.08684514967053</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.67019674277266</v>
+        <v>17.08575335893414</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>14.66978434849566</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11485175951085</v>
+        <v>24.11286534148319</v>
       </c>
       <c r="C9">
-        <v>12.98607544128889</v>
+        <v>12.9836266833314</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.10457838351441</v>
+        <v>16.10415457098994</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.38621802295063</v>
+        <v>37.69874676800468</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.38212834455762</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.98171842929242</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.22784046704852</v>
+        <v>19.97951311388556</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.22693134366432</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56477727085452</v>
+        <v>26.56184622717181</v>
       </c>
       <c r="C10">
-        <v>14.22089213998727</v>
+        <v>14.21751355024442</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.79352703242367</v>
+        <v>17.79284248337864</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.59102562804584</v>
+        <v>41.17887884937577</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.5851872206272</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.95860143586035</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>18.9860950257328</v>
+        <v>21.95547052017821</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>18.98473118121263</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64421304393643</v>
+        <v>27.6408027011459</v>
       </c>
       <c r="C11">
-        <v>14.76694786565284</v>
+        <v>14.76311944726001</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54176996309977</v>
+        <v>18.54094187978636</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.04728181718458</v>
+        <v>42.74772251645494</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.04077456889729</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.82994003411937</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.76431861889822</v>
+        <v>22.8263501738315</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>19.76271771855856</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.04847816842563</v>
+        <v>28.04487744412441</v>
       </c>
       <c r="C12">
-        <v>14.97177880397424</v>
+        <v>14.96777484603095</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.82267040606017</v>
+        <v>18.82178338192211</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.599138517635</v>
+        <v>43.34048264403841</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.59239387241098</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.15632799936429</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.05636228620527</v>
+        <v>23.15255733359002</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.05466608156157</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96160262006157</v>
+        <v>27.95804332555193</v>
       </c>
       <c r="C13">
-        <v>14.92774599826414</v>
+        <v>14.92378010165517</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.76227423984033</v>
+        <v>18.76140013268754</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.48025589159423</v>
+        <v>43.21286627877078</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.47356170921707</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.08618524479293</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>19.99357533505203</v>
+        <v>23.08245385960009</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>19.99189992456894</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6775587871302</v>
+        <v>27.67413297115999</v>
       </c>
       <c r="C14">
-        <v>14.78383653550183</v>
+        <v>14.77999378828625</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.56492596138068</v>
+        <v>18.5640931276507</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.09267089138367</v>
+        <v>42.79651091416724</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.08614380881516</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.85686084367051</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.7883955020595</v>
+        <v>22.85325625925984</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>19.78678687990287</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50300626954987</v>
+        <v>27.49966099689721</v>
       </c>
       <c r="C15">
-        <v>14.69544407538887</v>
+        <v>14.69167603892637</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.44374074291309</v>
+        <v>18.44293255844369</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.85533904533312</v>
+        <v>42.54133364301422</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.84891630837409</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.71594289967836</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>19.66238631736717</v>
+        <v>22.71241501832307</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>19.66081784321257</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49357303140829</v>
+        <v>26.49067217328949</v>
       </c>
       <c r="C16">
-        <v>14.18491562517981</v>
+        <v>14.18156578452802</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.74425995613875</v>
+        <v>17.74358420607918</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.49587296811612</v>
+        <v>41.07612119547115</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.49008062828668</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.90113175625883</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>18.93483855133227</v>
+        <v>21.8980299456258</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>18.93348949606466</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86570337454219</v>
+        <v>25.86306133485106</v>
       </c>
       <c r="C17">
-        <v>13.86790987658222</v>
+        <v>13.86480884265772</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.31030368749562</v>
+        <v>17.30970216430885</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.66185786056584</v>
+        <v>40.17405477153115</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.65648313725605</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.39440982503847</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.483276297754</v>
+        <v>21.39155868646792</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.48205335614298</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.50123311998603</v>
+        <v>25.49873540560943</v>
       </c>
       <c r="C18">
-        <v>13.68408058984231</v>
+        <v>13.68112023072298</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.05878416197445</v>
+        <v>17.05822305961413</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.18195144571387</v>
+        <v>39.65381000966592</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.17682900399112</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.10029458355302</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.22148381168174</v>
+        <v>21.09758417097557</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.22033065145349</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37724152233053</v>
+        <v>25.37479194081638</v>
       </c>
       <c r="C19">
-        <v>13.62157380657519</v>
+        <v>13.61866069614385</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.97328200306073</v>
+        <v>16.97273422258419</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>40.01941239690942</v>
+        <v>39.47740480722023</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>40.01437751373921</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.0002424131447</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.13247789505962</v>
+        <v>20.99757909679772</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.13134791987533</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93288278376723</v>
+        <v>25.93021367363314</v>
       </c>
       <c r="C20">
-        <v>13.90180847271928</v>
+        <v>13.89868121343061</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.35669474562361</v>
+        <v>17.35608556248438</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.75065723489637</v>
+        <v>40.27022157118424</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.74523682118236</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.44862373267834</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.53155661601009</v>
+        <v>21.44574627731576</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.53032054229292</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76110649935637</v>
+        <v>27.75764173472207</v>
       </c>
       <c r="C21">
-        <v>14.82615640723388</v>
+        <v>14.82227764129926</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.62295432416375</v>
+        <v>18.62210950131333</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.20649689582177</v>
+        <v>42.91883373031342</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.19992032155128</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.9243118705593</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.84872976538504</v>
+        <v>22.92067024635433</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>19.84710168722349</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.93008686557594</v>
+        <v>28.92604916523819</v>
       </c>
       <c r="C22">
-        <v>15.41909831451279</v>
+        <v>15.41469723767906</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.43655336762003</v>
+        <v>19.43552711616225</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.81434071931589</v>
+        <v>44.64261846837577</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.80709968996896</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.86822386879573</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>20.69438831581357</v>
+        <v>23.86404091866369</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20.69247096646005</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30834171969024</v>
+        <v>28.30461535117267</v>
       </c>
       <c r="C23">
-        <v>15.10354037182754</v>
+        <v>15.09942143723245</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.0034316901073</v>
+        <v>19.00250518868943</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.95567917782942</v>
+        <v>43.72296643203219</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.94878531825533</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.36614952850364</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.24426235797321</v>
+        <v>23.36225994853844</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.24250290665086</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90252191328536</v>
+        <v>25.89986505550339</v>
       </c>
       <c r="C24">
-        <v>13.88648785608438</v>
+        <v>13.88337246055861</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.33572771053694</v>
+        <v>17.33512199740883</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.71051239130153</v>
+        <v>40.22674970477352</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.7051125961277</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.42412236078665</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.50973591782849</v>
+        <v>21.42125681368658</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.50850578953234</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.178381706242</v>
+        <v>23.17670871509272</v>
       </c>
       <c r="C25">
-        <v>12.51570088566652</v>
+        <v>12.51357827557992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.46224021418668</v>
+        <v>15.4618957003059</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.20141548775374</v>
+        <v>36.40075025374549</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.19809589786765</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.22629657520867</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.55853362695582</v>
+        <v>19.22440718428995</v>
       </c>
       <c r="L25">
+        <v>16.55777163603439</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04376910985778</v>
+        <v>26.12361872691345</v>
       </c>
       <c r="C2">
-        <v>11.44599680447401</v>
+        <v>19.34304170089971</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.0049579223505</v>
+        <v>6.855797900653031</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>41.3781941313874</v>
       </c>
       <c r="G2">
-        <v>33.51879476088278</v>
+        <v>2.063795713765852</v>
       </c>
       <c r="H2">
-        <v>34.59426867543944</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.635338001728065</v>
       </c>
       <c r="K2">
-        <v>17.50435937050588</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.03851121533936</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.72976432290155</v>
+      </c>
+      <c r="N2">
+        <v>13.54003513720929</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51161157632568</v>
+        <v>24.21643251423145</v>
       </c>
       <c r="C3">
-        <v>10.68213889860107</v>
+        <v>17.91649243555938</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.9636356784753</v>
+        <v>6.769496383439582</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>39.51570389465983</v>
       </c>
       <c r="G3">
-        <v>31.52108277187321</v>
+        <v>2.077387020979431</v>
       </c>
       <c r="H3">
-        <v>32.81343052708909</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.68005008417016</v>
       </c>
       <c r="K3">
-        <v>16.2690665620716</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.95150796469101</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.85673804746872</v>
+      </c>
+      <c r="N3">
+        <v>13.73484797113758</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52617698256497</v>
+        <v>22.99300341920146</v>
       </c>
       <c r="C4">
-        <v>10.19228495541227</v>
+        <v>17.00116659930015</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29610765122117</v>
+        <v>6.718895796940217</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>38.37455900550298</v>
       </c>
       <c r="G4">
-        <v>30.27245685745942</v>
+        <v>2.085872134419803</v>
       </c>
       <c r="H4">
-        <v>31.71230370167612</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.710658213893473</v>
       </c>
       <c r="K4">
-        <v>15.47466083844085</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.25418256778063</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.31095701218826</v>
+      </c>
+      <c r="N4">
+        <v>13.85975879022366</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11310952330981</v>
+        <v>22.48101156862559</v>
       </c>
       <c r="C5">
-        <v>9.987307975848228</v>
+        <v>16.61800901008839</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.04411799366507</v>
+        <v>6.698818372612665</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>37.91049221043218</v>
       </c>
       <c r="G5">
-        <v>29.75823695191595</v>
+        <v>2.089369660250951</v>
       </c>
       <c r="H5">
-        <v>31.26182448977083</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.723880890527598</v>
       </c>
       <c r="K5">
-        <v>15.14168608911355</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.9622857545802</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.08630288892014</v>
+      </c>
+      <c r="N5">
+        <v>13.91193569720167</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0438186060245</v>
+        <v>22.39517770418661</v>
       </c>
       <c r="C6">
-        <v>9.952945090081302</v>
+        <v>16.55376609569905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.0034461221829</v>
+        <v>6.6955157836881</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.83350413435518</v>
       </c>
       <c r="G6">
-        <v>29.67253201663987</v>
+        <v>2.089952949306426</v>
       </c>
       <c r="H6">
-        <v>31.18692340589051</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.726120599157319</v>
       </c>
       <c r="K6">
-        <v>15.08583147520539</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.91334373339563</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.04887081681553</v>
+      </c>
+      <c r="N6">
+        <v>13.92067514738194</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52065307795677</v>
+        <v>22.98615321920284</v>
       </c>
       <c r="C7">
-        <v>10.18954239663725</v>
+        <v>16.99604061947093</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.29237056682797</v>
+        <v>6.718622898446053</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>38.36829602810526</v>
       </c>
       <c r="G7">
-        <v>30.26554346642895</v>
+        <v>2.08591913651177</v>
       </c>
       <c r="H7">
-        <v>31.7062352095934</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.710833558410634</v>
       </c>
       <c r="K7">
-        <v>15.47020793679513</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.25027751484495</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.30793602096759</v>
+      </c>
+      <c r="N7">
+        <v>13.86045737279487</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52459172098803</v>
+        <v>25.47672977537345</v>
       </c>
       <c r="C8">
-        <v>11.18686791146083</v>
+        <v>18.85919365493286</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.65162318902073</v>
+        <v>6.825507424055001</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>40.73568066872912</v>
       </c>
       <c r="G8">
-        <v>32.83459899761456</v>
+        <v>2.06845583670277</v>
       </c>
       <c r="H8">
-        <v>33.98189975792122</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.650072043062237</v>
       </c>
       <c r="K8">
-        <v>17.08575335893414</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.66978434849566</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.43087155325306</v>
+      </c>
+      <c r="N8">
+        <v>13.60607032073731</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11286534148319</v>
+        <v>29.9590100563091</v>
       </c>
       <c r="C9">
-        <v>12.9836266833314</v>
+        <v>22.21265950742793</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.10415457098994</v>
+        <v>7.057262046713133</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>45.38784081081435</v>
       </c>
       <c r="G9">
-        <v>37.69874676800468</v>
+        <v>2.035087819673245</v>
       </c>
       <c r="H9">
-        <v>38.38212834455762</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.558219857739773</v>
       </c>
       <c r="K9">
-        <v>19.97951311388556</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.22693134366432</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.69260523735423</v>
+      </c>
+      <c r="N9">
+        <v>13.15238879239825</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56184622717181</v>
+        <v>33.03096716100282</v>
       </c>
       <c r="C10">
-        <v>14.21751355024442</v>
+        <v>24.51386529737514</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.79284248337864</v>
+        <v>7.246644607168301</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>48.80849830832144</v>
       </c>
       <c r="G10">
-        <v>41.17887884937577</v>
+        <v>2.010731749887007</v>
       </c>
       <c r="H10">
-        <v>41.5851872206272</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.511089188644215</v>
       </c>
       <c r="K10">
-        <v>21.95547052017821</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.98473118121263</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.55041137124838</v>
+      </c>
+      <c r="N10">
+        <v>12.85216754851188</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6408027011459</v>
+        <v>34.38703008593932</v>
       </c>
       <c r="C11">
-        <v>14.76311944726001</v>
+        <v>25.53094328800086</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54094187978636</v>
+        <v>7.33862582883041</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>50.36761467897265</v>
       </c>
       <c r="G11">
-        <v>42.74772251645494</v>
+        <v>1.99958486231116</v>
       </c>
       <c r="H11">
-        <v>43.04077456889729</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.49508606715061</v>
       </c>
       <c r="K11">
-        <v>22.8263501738315</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.76271771855856</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.36525571880796</v>
+      </c>
+      <c r="N11">
+        <v>12.72444716108198</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.04487744412441</v>
+        <v>34.89524957632156</v>
       </c>
       <c r="C12">
-        <v>14.96777484603095</v>
+        <v>25.91235720880665</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.82178338192211</v>
+        <v>7.374477785041379</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>50.95887343843901</v>
       </c>
       <c r="G12">
-        <v>43.34048264403841</v>
+        <v>1.995343964361938</v>
       </c>
       <c r="H12">
-        <v>43.59239387241098</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.489911678853622</v>
       </c>
       <c r="K12">
-        <v>23.15255733359002</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.05466608156157</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.6697927450622</v>
+      </c>
+      <c r="N12">
+        <v>12.67753795270186</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.95804332555193</v>
+        <v>34.78601903016062</v>
       </c>
       <c r="C13">
-        <v>14.92378010165517</v>
+        <v>25.83036912899803</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.76140013268754</v>
+        <v>7.366707656751202</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>50.8314884430138</v>
       </c>
       <c r="G13">
-        <v>43.21286627877078</v>
+        <v>1.996258379713343</v>
       </c>
       <c r="H13">
-        <v>43.47356170921707</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.490984836948575</v>
       </c>
       <c r="K13">
-        <v>23.08245385960009</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.99189992456894</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.60437859109658</v>
+      </c>
+      <c r="N13">
+        <v>12.68757258858547</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67413297115999</v>
+        <v>34.42894347970818</v>
       </c>
       <c r="C14">
-        <v>14.77999378828625</v>
+        <v>25.56239375624135</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.5640931276507</v>
+        <v>7.3415537356481</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>50.41623764548012</v>
       </c>
       <c r="G14">
-        <v>42.79651091416724</v>
+        <v>1.99923642268051</v>
       </c>
       <c r="H14">
-        <v>43.08614380881516</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.494641957759208</v>
       </c>
       <c r="K14">
-        <v>22.85325625925984</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.78678687990287</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.39038881402755</v>
+      </c>
+      <c r="N14">
+        <v>12.72055754251107</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.49966099689721</v>
+        <v>34.20955674370704</v>
       </c>
       <c r="C15">
-        <v>14.69167603892637</v>
+        <v>25.39778298362694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.44293255844369</v>
+        <v>7.326285300171792</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>50.16201172247523</v>
       </c>
       <c r="G15">
-        <v>42.54133364301422</v>
+        <v>2.001057648222095</v>
       </c>
       <c r="H15">
-        <v>42.84891630837409</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.497000777362087</v>
       </c>
       <c r="K15">
-        <v>22.71241501832307</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.66081784321257</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.25880004438778</v>
+      </c>
+      <c r="N15">
+        <v>12.74095748507659</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49067217328949</v>
+        <v>32.94156625372109</v>
       </c>
       <c r="C16">
-        <v>14.18156578452802</v>
+        <v>24.44684285681313</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.74358420607918</v>
+        <v>7.240765370098086</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>48.70669885504186</v>
       </c>
       <c r="G16">
-        <v>41.07612119547115</v>
+        <v>2.011458044379146</v>
       </c>
       <c r="H16">
-        <v>41.49008062828668</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.512252909486652</v>
       </c>
       <c r="K16">
-        <v>21.8980299456258</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.93348949606466</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.49657695537639</v>
+      </c>
+      <c r="N16">
+        <v>12.8607072220383</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86306133485106</v>
+        <v>32.15352955680601</v>
       </c>
       <c r="C17">
-        <v>13.86480884265772</v>
+        <v>23.85621290155504</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.30970216430885</v>
+        <v>7.189911836766861</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>47.81492705645852</v>
       </c>
       <c r="G17">
-        <v>40.17405477153115</v>
+        <v>2.017814445509747</v>
       </c>
       <c r="H17">
-        <v>40.65648313725605</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.523070566590085</v>
       </c>
       <c r="K17">
-        <v>21.39155868646792</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.48205335614298</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.02144041780625</v>
+      </c>
+      <c r="N17">
+        <v>12.93655482444307</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.49873540560943</v>
+        <v>31.69633069966908</v>
       </c>
       <c r="C18">
-        <v>13.68112023072298</v>
+        <v>23.51366016357859</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.05822305961413</v>
+        <v>7.161197885865827</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>47.30225359509075</v>
       </c>
       <c r="G18">
-        <v>39.65381000966592</v>
+        <v>2.021464854588355</v>
       </c>
       <c r="H18">
-        <v>40.17682900399112</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.52979716837457</v>
       </c>
       <c r="K18">
-        <v>21.09758417097557</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.22033065145349</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.74528208514598</v>
+      </c>
+      <c r="N18">
+        <v>12.98100044452437</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37479194081638</v>
+        <v>31.5408358741858</v>
       </c>
       <c r="C19">
-        <v>13.61866069614385</v>
+        <v>23.39717504952795</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.97273422258419</v>
+        <v>7.151562945868782</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>47.12870455315342</v>
       </c>
       <c r="G19">
-        <v>39.47740480722023</v>
+        <v>2.022700136220825</v>
       </c>
       <c r="H19">
-        <v>40.01437751373921</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.532158458987177</v>
       </c>
       <c r="K19">
-        <v>20.99757909679772</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.13134791987533</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.6512770740953</v>
+      </c>
+      <c r="N19">
+        <v>12.99618488368236</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93021367363314</v>
+        <v>32.23782086991926</v>
       </c>
       <c r="C20">
-        <v>13.89868121343061</v>
+        <v>23.91937651896021</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.35608556248438</v>
+        <v>7.195268656150162</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>47.90982939985068</v>
       </c>
       <c r="G20">
-        <v>40.27022157118424</v>
+        <v>2.017138445973175</v>
       </c>
       <c r="H20">
-        <v>40.74523682118236</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.521866091169243</v>
       </c>
       <c r="K20">
-        <v>21.44574627731576</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.53032054229292</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.07231457182493</v>
+      </c>
+      <c r="N20">
+        <v>12.92839464421197</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.75764173472207</v>
+        <v>34.53396301786191</v>
       </c>
       <c r="C21">
-        <v>14.82227764129926</v>
+        <v>25.64120106268188</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.62210950131333</v>
+        <v>7.348912681982419</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>50.53817933407066</v>
       </c>
       <c r="G21">
-        <v>42.91883373031342</v>
+        <v>1.998362326773052</v>
       </c>
       <c r="H21">
-        <v>43.19992032155128</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.493542818487178</v>
       </c>
       <c r="K21">
-        <v>22.92067024635433</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.84710168722349</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.45334922885841</v>
+      </c>
+      <c r="N21">
+        <v>12.71082789106357</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.92604916523819</v>
+        <v>36.00417308726134</v>
       </c>
       <c r="C22">
-        <v>15.41469723767906</v>
+        <v>26.74508919062479</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.43552711616225</v>
+        <v>7.455395486412823</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>52.26128620728608</v>
       </c>
       <c r="G22">
-        <v>44.64261846837577</v>
+        <v>1.985969480879589</v>
       </c>
       <c r="H22">
-        <v>44.80709968996896</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.480256199464826</v>
       </c>
       <c r="K22">
-        <v>23.86404091866369</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.69247096646005</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.33265370894427</v>
+      </c>
+      <c r="N22">
+        <v>12.57723704331881</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30461535117267</v>
+        <v>35.22203112805455</v>
       </c>
       <c r="C23">
-        <v>15.09942143723245</v>
+        <v>26.15767723475114</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.00250518868943</v>
+        <v>7.397936234495131</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>51.34095238396029</v>
       </c>
       <c r="G23">
-        <v>43.72296643203219</v>
+        <v>1.99259873964883</v>
       </c>
       <c r="H23">
-        <v>43.94878531825533</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.486830246213903</v>
       </c>
       <c r="K23">
-        <v>23.36225994853844</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.24250290665086</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.8653608696991</v>
+      </c>
+      <c r="N23">
+        <v>12.64767827295221</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.89986505550339</v>
+        <v>32.19972572940586</v>
       </c>
       <c r="C24">
-        <v>13.88337246055861</v>
+        <v>23.89082960587056</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.33512199740883</v>
+        <v>7.192845223875873</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>47.86692402313632</v>
       </c>
       <c r="G24">
-        <v>40.22674970477352</v>
+        <v>2.017444076992347</v>
       </c>
       <c r="H24">
-        <v>40.7051125961277</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.522409061752683</v>
       </c>
       <c r="K24">
-        <v>21.42125681368658</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.50850578953234</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.0493237226927</v>
+      </c>
+      <c r="N24">
+        <v>12.9320812592012</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.17670871509272</v>
+        <v>28.78723016883523</v>
       </c>
       <c r="C25">
-        <v>12.51357827557992</v>
+        <v>21.33566221988141</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.4618957003059</v>
+        <v>6.991686551475644</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>44.12910589445092</v>
       </c>
       <c r="G25">
-        <v>36.40075025374549</v>
+        <v>2.04405640153298</v>
       </c>
       <c r="H25">
-        <v>37.19809589786765</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.579797337578503</v>
       </c>
       <c r="K25">
-        <v>19.22440718428995</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.55777163603439</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>17.98600411203565</v>
+      </c>
+      <c r="N25">
+        <v>13.26978490097711</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.12361872691345</v>
+        <v>21.01927531440631</v>
       </c>
       <c r="C2">
-        <v>19.34304170089971</v>
+        <v>14.63073373254926</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.855797900653031</v>
+        <v>11.51239547336787</v>
       </c>
       <c r="F2">
-        <v>41.3781941313874</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.063795713765852</v>
+        <v>33.99406631639942</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.07961372869486</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.635338001728065</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.72976432290155</v>
+        <v>18.21968712016374</v>
       </c>
       <c r="N2">
-        <v>13.54003513720929</v>
+        <v>10.84654169230897</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21643251423145</v>
+        <v>19.57293127016898</v>
       </c>
       <c r="C3">
-        <v>17.91649243555938</v>
+        <v>13.69919044362367</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.769496383439582</v>
+        <v>10.88277280331988</v>
       </c>
       <c r="F3">
-        <v>39.51570389465983</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.077387020979431</v>
+        <v>32.07370034759312</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.866997365769699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.68005008417016</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.85673804746872</v>
+        <v>16.98582987229767</v>
       </c>
       <c r="N3">
-        <v>13.73484797113758</v>
+        <v>11.12561355035368</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.99300341920146</v>
+        <v>18.63683329064692</v>
       </c>
       <c r="C4">
-        <v>17.00116659930015</v>
+        <v>13.09843259018657</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.718895796940217</v>
+        <v>10.49125194630379</v>
       </c>
       <c r="F4">
-        <v>38.37455900550298</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.085872134419803</v>
+        <v>30.89261434456391</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.747423085761687</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.710658213893473</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31095701218826</v>
+        <v>16.18980989709733</v>
       </c>
       <c r="N4">
-        <v>13.85975879022366</v>
+        <v>11.29932064807209</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.48101156862559</v>
+        <v>18.24315228528236</v>
       </c>
       <c r="C5">
-        <v>16.61800901008839</v>
+        <v>12.84634557382219</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.698818372612665</v>
+        <v>10.33061258879186</v>
       </c>
       <c r="F5">
-        <v>37.91049221043218</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.089369660250951</v>
+        <v>30.41132988613295</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.701385159445017</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.723880890527598</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.08630288892014</v>
+        <v>15.8556513837307</v>
       </c>
       <c r="N5">
-        <v>13.91193569720167</v>
+        <v>11.37076065147017</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.39517770418661</v>
+        <v>18.17704041052707</v>
       </c>
       <c r="C6">
-        <v>16.55376609569905</v>
+        <v>12.80404676059805</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.6955157836881</v>
+        <v>10.30387771960327</v>
       </c>
       <c r="F6">
-        <v>37.83350413435518</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.089952949306426</v>
+        <v>30.33143134065208</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.693900854197853</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.726120599157319</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.04887081681553</v>
+        <v>15.79957130769806</v>
       </c>
       <c r="N6">
-        <v>13.92067514738194</v>
+        <v>11.3826643351897</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.98615321920284</v>
+        <v>18.63157359518856</v>
       </c>
       <c r="C7">
-        <v>16.99604061947093</v>
+        <v>13.09506233898529</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.718622898446053</v>
+        <v>10.48908970235341</v>
       </c>
       <c r="F7">
-        <v>38.36829602810526</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.08591913651177</v>
+        <v>30.88612273682356</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.746791409810738</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.710833558410634</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.30793602096759</v>
+        <v>16.18534303018877</v>
       </c>
       <c r="N7">
-        <v>13.86045737279487</v>
+        <v>11.30028139221943</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.47672977537345</v>
+        <v>20.53046263657301</v>
       </c>
       <c r="C8">
-        <v>18.85919365493286</v>
+        <v>14.31548584140411</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.825507424055001</v>
+        <v>11.29640151104578</v>
       </c>
       <c r="F8">
-        <v>40.73568066872912</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.06845583670277</v>
+        <v>33.33260456656024</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.00398635954954</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.650072043062237</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.43087155325306</v>
+        <v>17.80215733757612</v>
       </c>
       <c r="N8">
-        <v>13.60607032073731</v>
+        <v>10.94231459291765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.9590100563091</v>
+        <v>23.87951686826794</v>
       </c>
       <c r="C9">
-        <v>22.21265950742793</v>
+        <v>16.48281257231173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.057262046713133</v>
+        <v>12.83599041317181</v>
       </c>
       <c r="F9">
-        <v>45.38784081081435</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.035087819673245</v>
+        <v>38.09843741290913</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.59824049005693</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.558219857739773</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.69260523735423</v>
+        <v>20.67357516977407</v>
       </c>
       <c r="N9">
-        <v>13.15238879239825</v>
+        <v>10.25604297443408</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.03096716100282</v>
+        <v>26.12139528503955</v>
       </c>
       <c r="C10">
-        <v>24.51386529737514</v>
+        <v>17.94209561979366</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.246644607168301</v>
+        <v>14.01394355694228</v>
       </c>
       <c r="F10">
-        <v>48.80849830832144</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.010731749887007</v>
+        <v>41.59704602618207</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.09335334322084</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.511089188644215</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.55041137124838</v>
+        <v>22.60989962064032</v>
       </c>
       <c r="N10">
-        <v>12.85216754851188</v>
+        <v>9.756802523382918</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38703008593932</v>
+        <v>27.09616453971604</v>
       </c>
       <c r="C11">
-        <v>25.53094328800086</v>
+        <v>18.57841915632797</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.33862582883041</v>
+        <v>14.59045356222361</v>
       </c>
       <c r="F11">
-        <v>50.36761467897265</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.99958486231116</v>
+        <v>43.22698874363305</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.33211775320026</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.49508606715061</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.36525571880796</v>
+        <v>23.45546004166977</v>
       </c>
       <c r="N11">
-        <v>12.72444716108198</v>
+        <v>9.529603167193279</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.89524957632156</v>
+        <v>27.45901787678741</v>
       </c>
       <c r="C12">
-        <v>25.91235720880665</v>
+        <v>18.81555538539165</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.374477785041379</v>
+        <v>14.80627140561144</v>
       </c>
       <c r="F12">
-        <v>50.95887343843901</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.995343964361938</v>
+        <v>43.84231025731118</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.42455271061012</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.489911678853622</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.6697927450622</v>
+        <v>23.77079412248842</v>
       </c>
       <c r="N12">
-        <v>12.67753795270186</v>
+        <v>9.44344648474835</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.78601903016062</v>
+        <v>27.38114623276578</v>
       </c>
       <c r="C13">
-        <v>25.83036912899803</v>
+        <v>18.76465172004532</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.366707656751202</v>
+        <v>14.75989892982765</v>
       </c>
       <c r="F13">
-        <v>50.8314884430138</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.996258379713343</v>
+        <v>43.70986919409771</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.40455405010218</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.490984836948575</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.60437859109658</v>
+        <v>23.70309385151471</v>
       </c>
       <c r="N13">
-        <v>12.68757258858547</v>
+        <v>9.462009112875066</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.42894347970818</v>
+        <v>27.1261410956313</v>
       </c>
       <c r="C14">
-        <v>25.56239375624135</v>
+        <v>18.59800435317753</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.3415537356481</v>
+        <v>14.60825787923103</v>
       </c>
       <c r="F14">
-        <v>50.41623764548012</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.99923642268051</v>
+        <v>43.27764791714839</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.33968148546327</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.494641957759208</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.39038881402755</v>
+        <v>23.48149889113586</v>
       </c>
       <c r="N14">
-        <v>12.72055754251107</v>
+        <v>9.522518097487913</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.20955674370704</v>
+        <v>26.96913306335199</v>
       </c>
       <c r="C15">
-        <v>25.39778298362694</v>
+        <v>18.4954340115919</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.326285300171792</v>
+        <v>14.51505438503988</v>
       </c>
       <c r="F15">
-        <v>50.16201172247523</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.001057648222095</v>
+        <v>43.01266142762553</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.30021061448428</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.497000777362087</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.25880004438778</v>
+        <v>23.34513920955136</v>
       </c>
       <c r="N15">
-        <v>12.74095748507659</v>
+        <v>9.559562394940027</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.94156625372109</v>
+        <v>26.05680241507794</v>
       </c>
       <c r="C16">
-        <v>24.44684285681313</v>
+        <v>17.89996749551252</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.240765370098086</v>
+        <v>13.97590782467161</v>
       </c>
       <c r="F16">
-        <v>48.70669885504186</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.011458044379146</v>
+        <v>41.49024333968299</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.07802795228797</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.512252909486652</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.49657695537639</v>
+        <v>22.55394788619581</v>
       </c>
       <c r="N16">
-        <v>12.8607072220383</v>
+        <v>9.771639728998743</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.15352955680601</v>
+        <v>25.48571681394399</v>
       </c>
       <c r="C17">
-        <v>23.85621290155504</v>
+        <v>17.52770857513908</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.189911836766861</v>
+        <v>13.64051484986103</v>
       </c>
       <c r="F17">
-        <v>47.81492705645852</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.017814445509747</v>
+        <v>40.56365265101713</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.94524205864945</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.523070566590085</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.02144041780625</v>
+        <v>22.05968450969361</v>
       </c>
       <c r="N17">
-        <v>12.93655482444307</v>
+        <v>9.901645644030358</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.69633069966908</v>
+        <v>25.15298733148975</v>
       </c>
       <c r="C18">
-        <v>23.51366016357859</v>
+        <v>17.31099663781191</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.161197885865827</v>
+        <v>13.45530163542618</v>
       </c>
       <c r="F18">
-        <v>47.30225359509075</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.021464854588355</v>
+        <v>40.04412326161725</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.87013621891612</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.52979716837457</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.74528208514598</v>
+        <v>21.77206220100278</v>
       </c>
       <c r="N18">
-        <v>12.98100044452437</v>
+        <v>9.976420058784104</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5408358741858</v>
+        <v>25.0395937439896</v>
       </c>
       <c r="C19">
-        <v>23.39717504952795</v>
+        <v>17.23717174482535</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.151562945868782</v>
+        <v>13.39945791125031</v>
       </c>
       <c r="F19">
-        <v>47.12870455315342</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.022700136220825</v>
+        <v>39.86810764482968</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.84492255939188</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.532158458987177</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.6512770740953</v>
+        <v>21.67409933487001</v>
       </c>
       <c r="N19">
-        <v>12.99618488368236</v>
+        <v>10.00174021638571</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.23782086991926</v>
+        <v>25.54694888239714</v>
       </c>
       <c r="C20">
-        <v>23.91937651896021</v>
+        <v>17.5676042177962</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.195268656150162</v>
+        <v>13.67639929344854</v>
       </c>
       <c r="F20">
-        <v>47.90982939985068</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.017138445973175</v>
+        <v>40.65975341598455</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.95924549693124</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.521866091169243</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.07231457182493</v>
+        <v>22.11264339540049</v>
       </c>
       <c r="N20">
-        <v>12.92839464421197</v>
+        <v>9.887807195623425</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.53396301786191</v>
+        <v>27.20121068871851</v>
       </c>
       <c r="C21">
-        <v>25.64120106268188</v>
+        <v>18.64705541700952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.348912681982419</v>
+        <v>14.65286464508118</v>
       </c>
       <c r="F21">
-        <v>50.53817933407066</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.998362326773052</v>
+        <v>43.40465087365866</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.35868066303661</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.493542818487178</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.45334922885841</v>
+        <v>23.54671682380151</v>
       </c>
       <c r="N21">
-        <v>12.71082789106357</v>
+        <v>9.504749354411759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.00417308726134</v>
+        <v>28.24592935218741</v>
       </c>
       <c r="C22">
-        <v>26.74508919062479</v>
+        <v>19.33031484146269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.455395486412823</v>
+        <v>15.27660729878624</v>
       </c>
       <c r="F22">
-        <v>52.26128620728608</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.985969480879589</v>
+        <v>45.19241360289123</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.63155229402675</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.480256199464826</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.33265370894427</v>
+        <v>24.45574792361501</v>
       </c>
       <c r="N22">
-        <v>12.57723704331881</v>
+        <v>9.253632864344056</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.22203112805455</v>
+        <v>27.69160227471887</v>
       </c>
       <c r="C23">
-        <v>26.15767723475114</v>
+        <v>18.96763174555315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.397936234495131</v>
+        <v>14.94495809025325</v>
       </c>
       <c r="F23">
-        <v>51.34095238396029</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.99259873964883</v>
+        <v>44.23913428450064</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.48480674517819</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.486830246213903</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.8653608696991</v>
+        <v>23.97308628763036</v>
       </c>
       <c r="N23">
-        <v>12.64767827295221</v>
+        <v>9.387767590579601</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.19972572940586</v>
+        <v>25.51927959977477</v>
       </c>
       <c r="C24">
-        <v>23.89082960587056</v>
+        <v>17.54957580270242</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.192845223875873</v>
+        <v>13.66018171494312</v>
       </c>
       <c r="F24">
-        <v>47.86692402313632</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.017444076992347</v>
+        <v>40.61630897255041</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.95291070257603</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.522409061752683</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.0493237226927</v>
+        <v>22.08871148759482</v>
       </c>
       <c r="N24">
-        <v>12.9320812592012</v>
+        <v>9.894063449603104</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.78723016883523</v>
+        <v>23.01265869952489</v>
       </c>
       <c r="C25">
-        <v>21.33566221988141</v>
+        <v>15.92025815327978</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.991686551475644</v>
+        <v>12.42460851312092</v>
       </c>
       <c r="F25">
-        <v>44.12910589445092</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.04405640153298</v>
+        <v>36.81426358366518</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.42746669003867</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.579797337578503</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.98600411203565</v>
+        <v>19.92793177911925</v>
       </c>
       <c r="N25">
-        <v>13.26978490097711</v>
+        <v>10.44046527204037</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01927531440631</v>
+        <v>12.80606733943071</v>
       </c>
       <c r="C2">
-        <v>14.63073373254926</v>
+        <v>8.843668143971094</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.51239547336787</v>
+        <v>11.43129748758444</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>33.99406631639942</v>
+        <v>28.86646142076297</v>
       </c>
       <c r="H2">
-        <v>10.07961372869486</v>
+        <v>13.62671500601549</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.21968712016374</v>
+        <v>14.6231630645241</v>
       </c>
       <c r="N2">
-        <v>10.84654169230897</v>
+        <v>16.757642252731</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57293127016898</v>
+        <v>12.2146141055841</v>
       </c>
       <c r="C3">
-        <v>13.69919044362367</v>
+        <v>8.372209569239471</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.88277280331988</v>
+        <v>11.32154172202978</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>32.07370034759312</v>
+        <v>28.44596566184433</v>
       </c>
       <c r="H3">
-        <v>9.866997365769699</v>
+        <v>13.6433237711046</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.98582987229767</v>
+        <v>14.34378902573054</v>
       </c>
       <c r="N3">
-        <v>11.12561355035368</v>
+        <v>16.83279564638506</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63683329064692</v>
+        <v>11.839279386063</v>
       </c>
       <c r="C4">
-        <v>13.09843259018657</v>
+        <v>8.067154450047489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.49125194630379</v>
+        <v>11.2575128469396</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>30.89261434456391</v>
+        <v>28.19935661521504</v>
       </c>
       <c r="H4">
-        <v>9.747423085761687</v>
+        <v>13.6574316886959</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.18980989709733</v>
+        <v>14.17367221208957</v>
       </c>
       <c r="N4">
-        <v>11.29932064807209</v>
+        <v>16.88094530113196</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24315228528236</v>
+        <v>11.68349411096636</v>
       </c>
       <c r="C5">
-        <v>12.84634557382219</v>
+        <v>7.938981897473832</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.33061258879186</v>
+        <v>11.2322913619066</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>30.41132988613295</v>
+        <v>28.10191440196221</v>
       </c>
       <c r="H5">
-        <v>9.701385159445017</v>
+        <v>13.66415963763008</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.8556513837307</v>
+        <v>14.10480562971849</v>
       </c>
       <c r="N5">
-        <v>11.37076065147017</v>
+        <v>16.90107281190421</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17704041052707</v>
+        <v>11.65746230198552</v>
       </c>
       <c r="C6">
-        <v>12.80404676059805</v>
+        <v>7.917467718001774</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.30387771960327</v>
+        <v>11.22815665215825</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>30.33143134065208</v>
+        <v>28.08592255289495</v>
       </c>
       <c r="H6">
-        <v>9.693900854197853</v>
+        <v>13.66533579237848</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.79957130769806</v>
+        <v>14.09340095375758</v>
       </c>
       <c r="N6">
-        <v>11.3826643351897</v>
+        <v>16.90444559540996</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.63157359518856</v>
+        <v>11.8371895564434</v>
       </c>
       <c r="C7">
-        <v>13.09506233898529</v>
+        <v>8.06544141501576</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.48908970235341</v>
+        <v>11.25716914318651</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>30.88612273682356</v>
+        <v>28.19802993357241</v>
       </c>
       <c r="H7">
-        <v>9.746791409810738</v>
+        <v>13.65751846699355</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.18534303018877</v>
+        <v>14.17274146835086</v>
       </c>
       <c r="N7">
-        <v>11.30028139221943</v>
+        <v>16.88121469595884</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.53046263657301</v>
+        <v>12.60479009118046</v>
       </c>
       <c r="C8">
-        <v>14.31548584140411</v>
+        <v>8.684372813020053</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.29640151104578</v>
+        <v>11.3927719149071</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>33.33260456656024</v>
+        <v>28.71915946231289</v>
       </c>
       <c r="H8">
-        <v>10.00398635954954</v>
+        <v>13.63162768980125</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.80215733757612</v>
+        <v>14.52660014518972</v>
       </c>
       <c r="N8">
-        <v>10.94231459291765</v>
+        <v>16.78314013219943</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87951686826794</v>
+        <v>14.00488193862422</v>
       </c>
       <c r="C9">
-        <v>16.48281257231173</v>
+        <v>9.772572152309266</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.83599041317181</v>
+        <v>11.68414589094893</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>38.09843741290913</v>
+        <v>29.82631194644381</v>
       </c>
       <c r="H9">
-        <v>10.59824049005693</v>
+        <v>13.61205507976308</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.67357516977407</v>
+        <v>15.22742984469142</v>
       </c>
       <c r="N9">
-        <v>10.25604297443408</v>
+        <v>16.60663721249328</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12139528503955</v>
+        <v>14.95992535911748</v>
       </c>
       <c r="C10">
-        <v>17.94209561979366</v>
+        <v>10.49364554644804</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.01394355694228</v>
+        <v>11.91199356223455</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>41.59704602618207</v>
+        <v>30.68237970619096</v>
       </c>
       <c r="H10">
-        <v>11.09335334322084</v>
+        <v>13.6169027298408</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.60989962064032</v>
+        <v>15.74086184431824</v>
       </c>
       <c r="N10">
-        <v>9.756802523382918</v>
+        <v>16.4864785514996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.09616453971604</v>
+        <v>15.37689148558792</v>
       </c>
       <c r="C11">
-        <v>18.57841915632797</v>
+        <v>10.80439982165396</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.59045356222361</v>
+        <v>12.01824061885331</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>43.22698874363305</v>
+        <v>31.07904487514563</v>
       </c>
       <c r="H11">
-        <v>11.33211775320026</v>
+        <v>13.62331654315149</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.45546004166977</v>
+        <v>15.97297471153803</v>
       </c>
       <c r="N11">
-        <v>9.529603167193279</v>
+        <v>16.43385477296913</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.45901787678741</v>
+        <v>15.53217031265082</v>
       </c>
       <c r="C12">
-        <v>18.81555538539165</v>
+        <v>10.91957759190762</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.80627140561144</v>
+        <v>12.05881257419793</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>43.84231025731118</v>
+        <v>31.23012138008681</v>
       </c>
       <c r="H12">
-        <v>11.42455271061012</v>
+        <v>13.62635224381797</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.77079412248842</v>
+        <v>16.06057157754637</v>
       </c>
       <c r="N12">
-        <v>9.44344648474835</v>
+        <v>16.41421838739014</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.38114623276578</v>
+        <v>15.49884609178197</v>
       </c>
       <c r="C13">
-        <v>18.76465172004532</v>
+        <v>10.89488329926368</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.75989892982765</v>
+        <v>12.05006018642834</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>43.70986919409771</v>
+        <v>31.19754846905098</v>
       </c>
       <c r="H13">
-        <v>11.40455405010218</v>
+        <v>13.6256714366662</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.70309385151471</v>
+        <v>16.04172072874266</v>
       </c>
       <c r="N13">
-        <v>9.462009112875066</v>
+        <v>16.41843451664006</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.1261410956313</v>
+        <v>15.38971934737822</v>
       </c>
       <c r="C14">
-        <v>18.59800435317753</v>
+        <v>10.8139257040124</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.60825787923103</v>
+        <v>12.02157191664828</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>43.27764791714839</v>
+        <v>31.09145761404485</v>
       </c>
       <c r="H14">
-        <v>11.33968148546327</v>
+        <v>13.62355412047279</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.48149889113586</v>
+        <v>15.98018785871658</v>
       </c>
       <c r="N14">
-        <v>9.522518097487913</v>
+        <v>16.43223345209344</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.96913306335199</v>
+        <v>15.32253247881995</v>
       </c>
       <c r="C15">
-        <v>18.4954340115919</v>
+        <v>10.76401113224605</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.51505438503988</v>
+        <v>12.00416506192573</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>43.01266142762553</v>
+        <v>31.02658186017946</v>
       </c>
       <c r="H15">
-        <v>11.30021061448428</v>
+        <v>13.62233628466548</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.34513920955136</v>
+        <v>15.94245561600277</v>
       </c>
       <c r="N15">
-        <v>9.559562394940027</v>
+        <v>16.44072355402918</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05680241507794</v>
+        <v>14.93231458764674</v>
       </c>
       <c r="C16">
-        <v>17.89996749551252</v>
+        <v>10.47298817498787</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.97590782467161</v>
+        <v>11.90509935823349</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>41.49024333968299</v>
+        <v>30.65658751909357</v>
       </c>
       <c r="H16">
-        <v>11.07802795228797</v>
+        <v>13.61656842180014</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.55394788619581</v>
+        <v>15.72565568390891</v>
       </c>
       <c r="N16">
-        <v>9.771639728998743</v>
+        <v>16.4899584730067</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48571681394399</v>
+        <v>14.68837101025253</v>
       </c>
       <c r="C17">
-        <v>17.52770857513908</v>
+        <v>10.29002042543954</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.64051484986103</v>
+        <v>11.84496638107041</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>40.56365265101713</v>
+        <v>30.43133795815447</v>
       </c>
       <c r="H17">
-        <v>10.94524205864945</v>
+        <v>13.61410937045303</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.05968450969361</v>
+        <v>15.59221856977598</v>
       </c>
       <c r="N17">
-        <v>9.901645644030358</v>
+        <v>16.52068292755139</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.15298733148975</v>
+        <v>14.54642000919772</v>
       </c>
       <c r="C18">
-        <v>17.31099663781191</v>
+        <v>10.18315767823434</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45530163542618</v>
+        <v>11.81062616323449</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>40.04412326161725</v>
+        <v>30.30247168264626</v>
       </c>
       <c r="H18">
-        <v>10.87013621891612</v>
+        <v>13.61309105522908</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.77206220100278</v>
+        <v>15.51533774480437</v>
       </c>
       <c r="N18">
-        <v>9.976420058784104</v>
+        <v>16.53854666161331</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.0395937439896</v>
+        <v>14.49807938457069</v>
       </c>
       <c r="C19">
-        <v>17.23717174482535</v>
+        <v>10.1466973182814</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39945791125031</v>
+        <v>11.79904258332817</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>39.86810764482968</v>
+        <v>30.25896379368854</v>
       </c>
       <c r="H19">
-        <v>10.84492255939188</v>
+        <v>13.61281423321993</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.67409933487001</v>
+        <v>15.48928750337169</v>
       </c>
       <c r="N19">
-        <v>10.00174021638571</v>
+        <v>16.54462801936346</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54694888239714</v>
+        <v>14.71450986554351</v>
       </c>
       <c r="C20">
-        <v>17.5676042177962</v>
+        <v>10.30966591398749</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.67639929344854</v>
+        <v>11.85134236124788</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>40.65975341598455</v>
+        <v>30.45524586573362</v>
       </c>
       <c r="H20">
-        <v>10.95924549693124</v>
+        <v>13.61433013501253</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.11264339540049</v>
+        <v>15.60643744222952</v>
       </c>
       <c r="N20">
-        <v>9.887807195623425</v>
+        <v>16.51739241547313</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.20121068871851</v>
+        <v>15.42184428007869</v>
       </c>
       <c r="C21">
-        <v>18.64705541700952</v>
+        <v>10.83777281031928</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.65286464508118</v>
+        <v>12.0299307072291</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>43.40465087365866</v>
+        <v>31.12259687596976</v>
       </c>
       <c r="H21">
-        <v>11.35868066303661</v>
+        <v>13.62415954477673</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.54671682380151</v>
+        <v>15.99827037541053</v>
       </c>
       <c r="N21">
-        <v>9.504749354411759</v>
+        <v>16.42817248443596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24592935218741</v>
+        <v>15.86883713935812</v>
       </c>
       <c r="C22">
-        <v>19.33031484146269</v>
+        <v>11.16835614071169</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.27660729878624</v>
+        <v>12.14860500509405</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>45.19241360289123</v>
+        <v>31.5637306337529</v>
       </c>
       <c r="H22">
-        <v>11.63155229402675</v>
+        <v>13.63412166309906</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.45574792361501</v>
+        <v>16.25257293601814</v>
       </c>
       <c r="N22">
-        <v>9.253632864344056</v>
+        <v>16.37155799960344</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69160227471887</v>
+        <v>15.63169734883563</v>
       </c>
       <c r="C23">
-        <v>18.96763174555315</v>
+        <v>10.9932542205292</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.94495809025325</v>
+        <v>12.0850989817002</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>44.23913428450064</v>
+        <v>31.32788980611694</v>
       </c>
       <c r="H23">
-        <v>11.48480674517819</v>
+        <v>13.62848054262564</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.97308628763036</v>
+        <v>16.11703876236105</v>
       </c>
       <c r="N23">
-        <v>9.387767590579601</v>
+        <v>16.4016196407089</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51927959977477</v>
+        <v>14.7026977905337</v>
       </c>
       <c r="C24">
-        <v>17.54957580270242</v>
+        <v>10.30078939586349</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.66018171494312</v>
+        <v>11.84845905833784</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>40.61630897255041</v>
+        <v>30.4444351167869</v>
       </c>
       <c r="H24">
-        <v>10.95291070257603</v>
+        <v>13.61422909575321</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.08871148759482</v>
+        <v>15.60000960025407</v>
       </c>
       <c r="N24">
-        <v>9.894063449603104</v>
+        <v>16.51887943334912</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.01265869952489</v>
+        <v>13.63845658638759</v>
       </c>
       <c r="C25">
-        <v>15.92025815327978</v>
+        <v>9.491851390287472</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.42460851312092</v>
+        <v>11.6027706136276</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>36.81426358366518</v>
+        <v>29.5186201445479</v>
       </c>
       <c r="H25">
-        <v>10.42746669003867</v>
+        <v>13.61398634533897</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.92793177911925</v>
+        <v>15.0376943418188</v>
       </c>
       <c r="N25">
-        <v>10.44046527204037</v>
+        <v>16.65270532493963</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.80606733943071</v>
+        <v>21.01927531440625</v>
       </c>
       <c r="C2">
-        <v>8.843668143971094</v>
+        <v>14.63073373254939</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.43129748758444</v>
+        <v>11.51239547336785</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>28.86646142076297</v>
+        <v>33.9940663163994</v>
       </c>
       <c r="H2">
-        <v>13.62671500601549</v>
+        <v>10.07961372869486</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.6231630645241</v>
+        <v>18.21968712016374</v>
       </c>
       <c r="N2">
-        <v>16.757642252731</v>
+        <v>10.84654169230893</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.2146141055841</v>
+        <v>19.57293127016904</v>
       </c>
       <c r="C3">
-        <v>8.372209569239471</v>
+        <v>13.69919044362368</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.32154172202978</v>
+        <v>10.88277280331989</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>28.44596566184433</v>
+        <v>32.07370034759303</v>
       </c>
       <c r="H3">
-        <v>13.6433237711046</v>
+        <v>9.86699736576962</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.34378902573054</v>
+        <v>16.98582987229773</v>
       </c>
       <c r="N3">
-        <v>16.83279564638506</v>
+        <v>11.12561355035361</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.839279386063</v>
+        <v>18.63683329064697</v>
       </c>
       <c r="C4">
-        <v>8.067154450047489</v>
+        <v>13.09843259018643</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.2575128469396</v>
+        <v>10.49125194630376</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>28.19935661521504</v>
+        <v>30.89261434456391</v>
       </c>
       <c r="H4">
-        <v>13.6574316886959</v>
+        <v>9.747423085761692</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.17367221208957</v>
+        <v>16.18980989709732</v>
       </c>
       <c r="N4">
-        <v>16.88094530113196</v>
+        <v>11.29932064807212</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68349411096636</v>
+        <v>18.24315228528234</v>
       </c>
       <c r="C5">
-        <v>7.938981897473832</v>
+        <v>12.84634557382227</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.2322913619066</v>
+        <v>10.33061258879187</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>28.10191440196221</v>
+        <v>30.411329886133</v>
       </c>
       <c r="H5">
-        <v>13.66415963763008</v>
+        <v>9.701385159445037</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.10480562971849</v>
+        <v>15.85565138373068</v>
       </c>
       <c r="N5">
-        <v>16.90107281190421</v>
+        <v>11.37076065147017</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.65746230198552</v>
+        <v>18.17704041052708</v>
       </c>
       <c r="C6">
-        <v>7.917467718001774</v>
+        <v>12.80404676059815</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.22815665215825</v>
+        <v>10.30387771960329</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>28.08592255289495</v>
+        <v>30.33143134065205</v>
       </c>
       <c r="H6">
-        <v>13.66533579237848</v>
+        <v>9.693900854197778</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.09340095375758</v>
+        <v>15.79957130769808</v>
       </c>
       <c r="N6">
-        <v>16.90444559540996</v>
+        <v>11.38266433518967</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8371895564434</v>
+        <v>18.63157359518854</v>
       </c>
       <c r="C7">
-        <v>8.06544141501576</v>
+        <v>13.0950623389853</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.25716914318651</v>
+        <v>10.48908970235347</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.19802993357241</v>
+        <v>30.88612273682348</v>
       </c>
       <c r="H7">
-        <v>13.65751846699355</v>
+        <v>9.746791409810674</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.17274146835086</v>
+        <v>16.18534303018873</v>
       </c>
       <c r="N7">
-        <v>16.88121469595884</v>
+        <v>11.30028139221937</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60479009118046</v>
+        <v>20.53046263657297</v>
       </c>
       <c r="C8">
-        <v>8.684372813020053</v>
+        <v>14.31548584140404</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.3927719149071</v>
+        <v>11.29640151104576</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>28.71915946231289</v>
+        <v>33.33260456656009</v>
       </c>
       <c r="H8">
-        <v>13.63162768980125</v>
+        <v>10.00398635954951</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.52660014518972</v>
+        <v>17.80215733757613</v>
       </c>
       <c r="N8">
-        <v>16.78314013219943</v>
+        <v>10.94231459291765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00488193862422</v>
+        <v>23.87951686826791</v>
       </c>
       <c r="C9">
-        <v>9.772572152309266</v>
+        <v>16.48281257231171</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68414589094893</v>
+        <v>12.83599041317182</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>29.82631194644381</v>
+        <v>38.09843741290913</v>
       </c>
       <c r="H9">
-        <v>13.61205507976308</v>
+        <v>10.59824049005699</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.22742984469142</v>
+        <v>20.67357516977405</v>
       </c>
       <c r="N9">
-        <v>16.60663721249328</v>
+        <v>10.25604297443411</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.95992535911748</v>
+        <v>26.1213952850395</v>
       </c>
       <c r="C10">
-        <v>10.49364554644804</v>
+        <v>17.94209561979362</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.91199356223455</v>
+        <v>14.01394355694227</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>30.68237970619096</v>
+        <v>41.59704602618198</v>
       </c>
       <c r="H10">
-        <v>13.6169027298408</v>
+        <v>11.09335334322084</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.74086184431824</v>
+        <v>22.60989962064031</v>
       </c>
       <c r="N10">
-        <v>16.4864785514996</v>
+        <v>9.75680252338292</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.37689148558792</v>
+        <v>27.09616453971597</v>
       </c>
       <c r="C11">
-        <v>10.80439982165396</v>
+        <v>18.57841915632807</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.01824061885331</v>
+        <v>14.59045356222364</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>31.07904487514563</v>
+        <v>43.22698874363298</v>
       </c>
       <c r="H11">
-        <v>13.62331654315149</v>
+        <v>11.33211775320025</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.97297471153803</v>
+        <v>23.45546004166976</v>
       </c>
       <c r="N11">
-        <v>16.43385477296913</v>
+        <v>9.529603167193347</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53217031265082</v>
+        <v>27.45901787678743</v>
       </c>
       <c r="C12">
-        <v>10.91957759190762</v>
+        <v>18.81555538539165</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.05881257419793</v>
+        <v>14.80627140561146</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>31.23012138008681</v>
+        <v>43.84231025731128</v>
       </c>
       <c r="H12">
-        <v>13.62635224381797</v>
+        <v>11.42455271061015</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.06057157754637</v>
+        <v>23.77079412248846</v>
       </c>
       <c r="N12">
-        <v>16.41421838739014</v>
+        <v>9.44344648474835</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.49884609178197</v>
+        <v>27.38114623276584</v>
       </c>
       <c r="C13">
-        <v>10.89488329926368</v>
+        <v>18.76465172004532</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.05006018642834</v>
+        <v>14.75989892982771</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>31.19754846905098</v>
+        <v>43.70986919409777</v>
       </c>
       <c r="H13">
-        <v>13.6256714366662</v>
+        <v>11.40455405010216</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.04172072874266</v>
+        <v>23.70309385151477</v>
       </c>
       <c r="N13">
-        <v>16.41843451664006</v>
+        <v>9.462009112874998</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.38971934737822</v>
+        <v>27.12614109563129</v>
       </c>
       <c r="C14">
-        <v>10.8139257040124</v>
+        <v>18.59800435317746</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.02157191664828</v>
+        <v>14.60825787923106</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>31.09145761404485</v>
+        <v>43.27764791714822</v>
       </c>
       <c r="H14">
-        <v>13.62355412047279</v>
+        <v>11.33968148546326</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.98018785871658</v>
+        <v>23.48149889113587</v>
       </c>
       <c r="N14">
-        <v>16.43223345209344</v>
+        <v>9.522518097487913</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.32253247881995</v>
+        <v>26.96913306335205</v>
       </c>
       <c r="C15">
-        <v>10.76401113224605</v>
+        <v>18.49543401159193</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.00416506192573</v>
+        <v>14.51505438503986</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>31.02658186017946</v>
+        <v>43.01266142762562</v>
       </c>
       <c r="H15">
-        <v>13.62233628466548</v>
+        <v>11.30021061448424</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.94245561600277</v>
+        <v>23.34513920955138</v>
       </c>
       <c r="N15">
-        <v>16.44072355402918</v>
+        <v>9.559562394939926</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.93231458764674</v>
+        <v>26.05680241507794</v>
       </c>
       <c r="C16">
-        <v>10.47298817498787</v>
+        <v>17.8999674955126</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.90509935823349</v>
+        <v>13.97590782467161</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>30.65658751909357</v>
+        <v>41.49024333968303</v>
       </c>
       <c r="H16">
-        <v>13.61656842180014</v>
+        <v>11.07802795228798</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.72565568390891</v>
+        <v>22.55394788619583</v>
       </c>
       <c r="N16">
-        <v>16.4899584730067</v>
+        <v>9.771639728998743</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68837101025253</v>
+        <v>25.48571681394395</v>
       </c>
       <c r="C17">
-        <v>10.29002042543954</v>
+        <v>17.52770857513901</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.84496638107041</v>
+        <v>13.640514849861</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>30.43133795815447</v>
+        <v>40.56365265101702</v>
       </c>
       <c r="H17">
-        <v>13.61410937045303</v>
+        <v>10.94524205864947</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.59221856977598</v>
+        <v>22.05968450969355</v>
       </c>
       <c r="N17">
-        <v>16.52068292755139</v>
+        <v>9.901645644030427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.54642000919772</v>
+        <v>25.1529873314897</v>
       </c>
       <c r="C18">
-        <v>10.18315767823434</v>
+        <v>17.31099663781192</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.81062616323449</v>
+        <v>13.45530163542618</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>30.30247168264626</v>
+        <v>40.04412326161719</v>
       </c>
       <c r="H18">
-        <v>13.61309105522908</v>
+        <v>10.8701362189161</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.51533774480437</v>
+        <v>21.77206220100276</v>
       </c>
       <c r="N18">
-        <v>16.53854666161331</v>
+        <v>9.976420058784008</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.49807938457069</v>
+        <v>25.03959374398964</v>
       </c>
       <c r="C19">
-        <v>10.1466973182814</v>
+        <v>17.23717174482535</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.79904258332817</v>
+        <v>13.39945791125031</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>30.25896379368854</v>
+        <v>39.86810764482968</v>
       </c>
       <c r="H19">
-        <v>13.61281423321993</v>
+        <v>10.84492255939188</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.48928750337169</v>
+        <v>21.67409933487001</v>
       </c>
       <c r="N19">
-        <v>16.54462801936346</v>
+        <v>10.00174021638571</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71450986554351</v>
+        <v>25.54694888239707</v>
       </c>
       <c r="C20">
-        <v>10.30966591398749</v>
+        <v>17.56760421779625</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.85134236124788</v>
+        <v>13.67639929344855</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>30.45524586573362</v>
+        <v>40.65975341598446</v>
       </c>
       <c r="H20">
-        <v>13.61433013501253</v>
+        <v>10.95924549693122</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.60643744222952</v>
+        <v>22.11264339540047</v>
       </c>
       <c r="N20">
-        <v>16.51739241547313</v>
+        <v>9.887807195623461</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.42184428007869</v>
+        <v>27.20121068871848</v>
       </c>
       <c r="C21">
-        <v>10.83777281031928</v>
+        <v>18.64705541700952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.0299307072291</v>
+        <v>14.65286464508125</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>31.12259687596976</v>
+        <v>43.40465087365861</v>
       </c>
       <c r="H21">
-        <v>13.62415954477673</v>
+        <v>11.35868066303662</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.99827037541053</v>
+        <v>23.5467168238015</v>
       </c>
       <c r="N21">
-        <v>16.42817248443596</v>
+        <v>9.504749354411759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.86883713935812</v>
+        <v>28.24592935218735</v>
       </c>
       <c r="C22">
-        <v>11.16835614071169</v>
+        <v>19.33031484146269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.14860500509405</v>
+        <v>15.27660729878623</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>31.5637306337529</v>
+        <v>45.1924136028911</v>
       </c>
       <c r="H22">
-        <v>13.63412166309906</v>
+        <v>11.63155229402677</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.25257293601814</v>
+        <v>24.45574792361495</v>
       </c>
       <c r="N22">
-        <v>16.37155799960344</v>
+        <v>9.253632864344086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.63169734883563</v>
+        <v>27.69160227471883</v>
       </c>
       <c r="C23">
-        <v>10.9932542205292</v>
+        <v>18.96763174555314</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.0850989817002</v>
+        <v>14.94495809025327</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>31.32788980611694</v>
+        <v>44.23913428450064</v>
       </c>
       <c r="H23">
-        <v>13.62848054262564</v>
+        <v>11.48480674517822</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.11703876236105</v>
+        <v>23.97308628763037</v>
       </c>
       <c r="N23">
-        <v>16.4016196407089</v>
+        <v>9.387767590579637</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.7026977905337</v>
+        <v>25.51927959977482</v>
       </c>
       <c r="C24">
-        <v>10.30078939586349</v>
+        <v>17.5495758027025</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.84845905833784</v>
+        <v>13.6601817149431</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>30.4444351167869</v>
+        <v>40.61630897255048</v>
       </c>
       <c r="H24">
-        <v>13.61422909575321</v>
+        <v>10.95291070257604</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60000960025407</v>
+        <v>22.08871148759482</v>
       </c>
       <c r="N24">
-        <v>16.51887943334912</v>
+        <v>9.89406344960307</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63845658638759</v>
+        <v>23.01265869952486</v>
       </c>
       <c r="C25">
-        <v>9.491851390287472</v>
+        <v>15.92025815327987</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.6027706136276</v>
+        <v>12.42460851312093</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>29.5186201445479</v>
+        <v>36.81426358366514</v>
       </c>
       <c r="H25">
-        <v>13.61398634533897</v>
+        <v>10.42746669003867</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.0376943418188</v>
+        <v>19.92793177911924</v>
       </c>
       <c r="N25">
-        <v>16.65270532493963</v>
+        <v>10.44046527204037</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01927531440625</v>
+        <v>18.91847076495506</v>
       </c>
       <c r="C2">
-        <v>14.63073373254939</v>
+        <v>15.34557528557654</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.51239547336785</v>
+        <v>14.80377699832379</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>33.62386229857649</v>
       </c>
       <c r="G2">
-        <v>33.9940663163994</v>
+        <v>30.77528739525427</v>
       </c>
       <c r="H2">
-        <v>10.07961372869486</v>
+        <v>1.622152408280267</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.129533103904893</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.13607277117216</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.56773385256041</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.302692970204714</v>
       </c>
       <c r="M2">
-        <v>18.21968712016374</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.84654169230893</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.54769828091545</v>
+      </c>
+      <c r="P2">
+        <v>12.04059882826994</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57293127016904</v>
+        <v>17.66391389576733</v>
       </c>
       <c r="C3">
-        <v>13.69919044362368</v>
+        <v>14.36372369897664</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.88277280331989</v>
+        <v>14.21715235368545</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>32.28192865624632</v>
       </c>
       <c r="G3">
-        <v>32.07370034759303</v>
+        <v>29.44780731792576</v>
       </c>
       <c r="H3">
-        <v>9.86699736576962</v>
+        <v>1.887534092481326</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.943132172825878</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.994763705191509</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.48809402452487</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.25178409672983</v>
       </c>
       <c r="M3">
-        <v>16.98582987229773</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.12561355035361</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.5963389056672</v>
+      </c>
+      <c r="P3">
+        <v>12.18443702992473</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63683329064697</v>
+        <v>16.84439671725966</v>
       </c>
       <c r="C4">
-        <v>13.09843259018643</v>
+        <v>13.73022187652425</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.49125194630376</v>
+        <v>13.84515634244062</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>31.43746279827572</v>
       </c>
       <c r="G4">
-        <v>30.89261434456391</v>
+        <v>28.61589875827515</v>
       </c>
       <c r="H4">
-        <v>9.747423085761692</v>
+        <v>2.056201701798842</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.825537413940979</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.910790558542471</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.4438113948928</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.218981218820718</v>
       </c>
       <c r="M4">
-        <v>16.18980989709732</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.29932064807212</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.98561241242735</v>
+      </c>
+      <c r="P4">
+        <v>12.27449150479219</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24315228528234</v>
+        <v>16.49074461268431</v>
       </c>
       <c r="C5">
-        <v>12.84634557382227</v>
+        <v>13.47097858196193</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.33061258879187</v>
+        <v>13.69482898606154</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>31.08191535701143</v>
       </c>
       <c r="G5">
-        <v>30.411329886133</v>
+        <v>28.25113049153134</v>
       </c>
       <c r="H5">
-        <v>9.701385159445037</v>
+        <v>2.126604644365064</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.777187178113285</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.87327265895097</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.4188008170827</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.204855819637394</v>
       </c>
       <c r="M5">
-        <v>15.85565138373068</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.37076065147017</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.73158270052803</v>
+      </c>
+      <c r="P5">
+        <v>12.31172322063131</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17704041052708</v>
+        <v>16.42239672463021</v>
       </c>
       <c r="C6">
-        <v>12.80404676059815</v>
+        <v>13.43557095034728</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.30387771960329</v>
+        <v>13.67475271669934</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>31.0144334982305</v>
       </c>
       <c r="G6">
-        <v>30.33143134065205</v>
+        <v>28.16347603416009</v>
       </c>
       <c r="H6">
-        <v>9.693900854197778</v>
+        <v>2.138635046885026</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.769769794479182</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.862189679337654</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.40483685790004</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.202040545565191</v>
       </c>
       <c r="M6">
-        <v>15.79957130769808</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.38266433518967</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.69067318469392</v>
+      </c>
+      <c r="P6">
+        <v>12.31805096414152</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.63157359518854</v>
+        <v>16.81602699320064</v>
       </c>
       <c r="C7">
-        <v>13.0950623389853</v>
+        <v>13.74837864676498</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.48908970235347</v>
+        <v>13.856749935694</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>31.41069520067724</v>
       </c>
       <c r="G7">
-        <v>30.88612273682348</v>
+        <v>28.53867763453609</v>
       </c>
       <c r="H7">
-        <v>9.746791409810674</v>
+        <v>2.057821216566627</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.826321168863169</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.896972281538229</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.41653862402586</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.217590544863477</v>
       </c>
       <c r="M7">
-        <v>16.18534303018873</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.30028139221937</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.98664698141667</v>
+      </c>
+      <c r="P7">
+        <v>12.2753949284975</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.53046263657297</v>
+        <v>18.46718616013826</v>
       </c>
       <c r="C8">
-        <v>14.31548584140404</v>
+        <v>15.03983434025371</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.29640151104576</v>
+        <v>14.62116672612824</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>33.13800811295041</v>
       </c>
       <c r="G8">
-        <v>33.33260456656009</v>
+        <v>30.23053070046354</v>
       </c>
       <c r="H8">
-        <v>10.00398635954951</v>
+        <v>1.713337937343095</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.067216781382464</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.0694759189926</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.50394148417321</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.283937361977065</v>
       </c>
       <c r="M8">
-        <v>17.80215733757613</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10.94231459291765</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.2307328681831</v>
+      </c>
+      <c r="P8">
+        <v>12.09073573805153</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87951686826791</v>
+        <v>21.35510349565766</v>
       </c>
       <c r="C9">
-        <v>16.48281257231171</v>
+        <v>17.29572114441799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.83599041317182</v>
+        <v>15.99997391141305</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>36.38344518506349</v>
       </c>
       <c r="G9">
-        <v>38.09843741290913</v>
+        <v>33.51871405705029</v>
       </c>
       <c r="H9">
-        <v>10.59824049005699</v>
+        <v>2.028654382386148</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.514321679629016</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.45303146105898</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.76176284538648</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.403995386664012</v>
       </c>
       <c r="M9">
-        <v>20.67357516977405</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.25604297443411</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.44635215620421</v>
+      </c>
+      <c r="P9">
+        <v>11.74069836670347</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.1213952850395</v>
+        <v>23.22018148640414</v>
       </c>
       <c r="C10">
-        <v>17.94209561979362</v>
+        <v>18.780812549724</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.01394355694227</v>
+        <v>16.69177029173182</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>38.30089438906001</v>
       </c>
       <c r="G10">
-        <v>41.59704602618198</v>
+        <v>35.59410154902673</v>
       </c>
       <c r="H10">
-        <v>11.09335334322084</v>
+        <v>2.439200055498221</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.825184044573038</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.7010391278793</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.90038253112415</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.470855254445629</v>
       </c>
       <c r="M10">
-        <v>22.60989962064031</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>9.75680252338292</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.76317666398638</v>
+      </c>
+      <c r="P10">
+        <v>11.49895442009678</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.09616453971597</v>
+        <v>23.86336804577405</v>
       </c>
       <c r="C11">
-        <v>18.57841915632807</v>
+        <v>19.15082626588628</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.59045356222364</v>
+        <v>14.84759404028795</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>36.26703759889481</v>
       </c>
       <c r="G11">
-        <v>43.22698874363298</v>
+        <v>34.69077260923039</v>
       </c>
       <c r="H11">
-        <v>11.33211775320025</v>
+        <v>3.188820914598697</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.925379147299757</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.44203454732883</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.37036215368433</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.437724968677736</v>
       </c>
       <c r="M11">
-        <v>23.45546004166976</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>9.529603167193347</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.83923349114015</v>
+      </c>
+      <c r="P11">
+        <v>11.47134324446331</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.45901787678743</v>
+        <v>24.05587461545207</v>
       </c>
       <c r="C12">
-        <v>18.81555538539165</v>
+        <v>19.13383702929419</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.80627140561146</v>
+        <v>13.29239013583812</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>34.15181209941554</v>
       </c>
       <c r="G12">
-        <v>43.84231025731128</v>
+        <v>33.56576965336398</v>
       </c>
       <c r="H12">
-        <v>11.42455271061015</v>
+        <v>4.347769862838192</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.94568587091061</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.18315768082474</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.92615900049173</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.474803393546903</v>
       </c>
       <c r="M12">
-        <v>23.77079412248846</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>9.44344648474835</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.76713118526434</v>
+      </c>
+      <c r="P12">
+        <v>11.5139137461496</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.38114623276584</v>
+        <v>23.89268960146519</v>
       </c>
       <c r="C13">
-        <v>18.76465172004532</v>
+        <v>18.84271240873328</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.75989892982771</v>
+        <v>11.91736876880955</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>31.77149635674959</v>
       </c>
       <c r="G13">
-        <v>43.70986919409777</v>
+        <v>32.07239344340611</v>
       </c>
       <c r="H13">
-        <v>11.40455405010216</v>
+        <v>5.608545951710933</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.907714043478645</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.885686325697668</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.47793574929795</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.562520509748852</v>
       </c>
       <c r="M13">
-        <v>23.70309385151477</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9.462009112874998</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.49131996258921</v>
+      </c>
+      <c r="P13">
+        <v>11.60990597556408</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.12614109563129</v>
+        <v>23.61021905102672</v>
       </c>
       <c r="C14">
-        <v>18.59800435317746</v>
+        <v>18.51623242565486</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.60825787923106</v>
+        <v>11.11000627317754</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>29.96168544143264</v>
       </c>
       <c r="G14">
-        <v>43.27764791714822</v>
+        <v>30.82447530015893</v>
       </c>
       <c r="H14">
-        <v>11.33968148546326</v>
+        <v>6.526870997853433</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.855544947052051</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.655691020191238</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.15649130826268</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.654026349054525</v>
       </c>
       <c r="M14">
-        <v>23.48149889113587</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>9.522518097487913</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.4909000490396</v>
+      </c>
+      <c r="P14">
+        <v>11.70201926094438</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.96913306335205</v>
+        <v>23.45689403977168</v>
       </c>
       <c r="C15">
-        <v>18.49543401159193</v>
+        <v>18.38323870753548</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.51505438503986</v>
+        <v>10.93225468440796</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>29.45724122390865</v>
       </c>
       <c r="G15">
-        <v>43.01266142762562</v>
+        <v>30.41672040293096</v>
       </c>
       <c r="H15">
-        <v>11.30021061448424</v>
+        <v>6.735533795551245</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.830808922490932</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.587700024974655</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.06952837800908</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.676912154351734</v>
       </c>
       <c r="M15">
-        <v>23.34513920955138</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>9.559562394939926</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.20318360724096</v>
+      </c>
+      <c r="P15">
+        <v>11.73451724396534</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05680241507794</v>
+        <v>22.70661149343471</v>
       </c>
       <c r="C16">
-        <v>17.8999674955126</v>
+        <v>17.82232255374828</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.97590782467161</v>
+        <v>10.85128200156653</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>29.00113096277087</v>
       </c>
       <c r="G16">
-        <v>41.49024333968303</v>
+        <v>29.69886742960173</v>
       </c>
       <c r="H16">
-        <v>11.07802795228798</v>
+        <v>6.457819176489381</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.707699972172982</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.525529502746313</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.07970155396196</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.626359729721486</v>
       </c>
       <c r="M16">
-        <v>22.55394788619583</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>9.771639728998743</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.82988446302197</v>
+      </c>
+      <c r="P16">
+        <v>11.80658952976351</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48571681394395</v>
+        <v>22.27470771357078</v>
       </c>
       <c r="C17">
-        <v>17.52770857513901</v>
+        <v>17.56639704935441</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.640514849861</v>
+        <v>11.19216308794624</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>29.64170452975994</v>
       </c>
       <c r="G17">
-        <v>40.56365265101702</v>
+        <v>29.83738167495724</v>
       </c>
       <c r="H17">
-        <v>10.94524205864947</v>
+        <v>5.705167202879161</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.640790116929865</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.602385499392737</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.25870670582711</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.532852801018265</v>
       </c>
       <c r="M17">
-        <v>22.05968450969355</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>9.901645644030427</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.09650710367981</v>
+      </c>
+      <c r="P17">
+        <v>11.8146373920753</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.1529873314897</v>
+        <v>22.09577578941447</v>
       </c>
       <c r="C18">
-        <v>17.31099663781192</v>
+        <v>17.53757069491696</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45530163542618</v>
+        <v>12.11408526121392</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>31.31741173531707</v>
       </c>
       <c r="G18">
-        <v>40.04412326161719</v>
+        <v>30.77733345186294</v>
       </c>
       <c r="H18">
-        <v>10.8701362189161</v>
+        <v>4.496233826265756</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.614078655401091</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.814791473127169</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.62138579092861</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.425839754813648</v>
       </c>
       <c r="M18">
-        <v>21.77206220100276</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>9.976420058784008</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.94469198157597</v>
+      </c>
+      <c r="P18">
+        <v>11.77282574071585</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03959374398964</v>
+        <v>22.10218767474792</v>
       </c>
       <c r="C19">
-        <v>17.23717174482535</v>
+        <v>17.72710268170115</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39945791125031</v>
+        <v>13.64828549345796</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>33.65521072319959</v>
       </c>
       <c r="G19">
-        <v>39.86810764482968</v>
+        <v>32.15717053094503</v>
       </c>
       <c r="H19">
-        <v>10.84492255939188</v>
+        <v>3.167924043045584</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.628617957384485</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.09540129530937</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.06036932444248</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.370579033427262</v>
       </c>
       <c r="M19">
-        <v>21.67409933487001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.00174021638571</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.19021900108359</v>
+      </c>
+      <c r="P19">
+        <v>11.70926559172071</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54694888239707</v>
+        <v>22.68813785921319</v>
       </c>
       <c r="C20">
-        <v>17.56760421779625</v>
+        <v>18.45078281313556</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.67639929344855</v>
+        <v>16.5364604124247</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>37.73248342643618</v>
       </c>
       <c r="G20">
-        <v>40.65975341598446</v>
+        <v>34.86025231610538</v>
       </c>
       <c r="H20">
-        <v>10.95924549693122</v>
+        <v>2.329104078629803</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.749050920404091</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.59465926177218</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.7785493383421</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.449955346396977</v>
       </c>
       <c r="M20">
-        <v>22.11264339540047</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>9.887807195623461</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.42835820535624</v>
+      </c>
+      <c r="P20">
+        <v>11.5663537751414</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.20121068871848</v>
+        <v>24.08596004807536</v>
       </c>
       <c r="C21">
-        <v>18.64705541700952</v>
+        <v>19.58584830942875</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.65286464508125</v>
+        <v>17.44760088089246</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.69026271824601</v>
       </c>
       <c r="G21">
-        <v>43.40465087365861</v>
+        <v>36.77713776032951</v>
       </c>
       <c r="H21">
-        <v>11.35868066303662</v>
+        <v>2.666436954327593</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.990265332194504</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.86154587044368</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.01215327728938</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.521120439078282</v>
       </c>
       <c r="M21">
-        <v>23.5467168238015</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>9.504749354411759</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.66325410889995</v>
+      </c>
+      <c r="P21">
+        <v>11.3720092749719</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24592935218735</v>
+        <v>24.97209516927465</v>
       </c>
       <c r="C22">
-        <v>19.33031484146269</v>
+        <v>20.26432778740373</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.27660729878623</v>
+        <v>17.88089228596994</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.79454789403958</v>
       </c>
       <c r="G22">
-        <v>45.1924136028911</v>
+        <v>37.97407954956026</v>
       </c>
       <c r="H22">
-        <v>11.63155229402677</v>
+        <v>2.87363492672928</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.141616087219765</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.0327830188147</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.17038885648854</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.560721886189671</v>
       </c>
       <c r="M22">
-        <v>24.45574792361495</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.253632864344086</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.35000963054071</v>
+      </c>
+      <c r="P22">
+        <v>11.24775746314135</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69160227471883</v>
+        <v>24.52311731601808</v>
       </c>
       <c r="C23">
-        <v>18.96763174555314</v>
+        <v>19.88605668374228</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.94495809025327</v>
+        <v>17.63783527106337</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.22821293407175</v>
       </c>
       <c r="G23">
-        <v>44.23913428450064</v>
+        <v>37.40407791919817</v>
       </c>
       <c r="H23">
-        <v>11.48480674517822</v>
+        <v>2.764051621024278</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.059176798683208</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.95537142965828</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.11548383078951</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.540886748075772</v>
       </c>
       <c r="M23">
-        <v>23.97308628763037</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>9.387767590579637</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.98203819622799</v>
+      </c>
+      <c r="P23">
+        <v>11.31215160409467</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51927959977482</v>
+        <v>22.70979071083367</v>
       </c>
       <c r="C24">
-        <v>17.5495758027025</v>
+        <v>18.42989924486063</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.6601817149431</v>
+        <v>16.71222460928316</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>37.99890942164213</v>
       </c>
       <c r="G24">
-        <v>40.61630897255048</v>
+        <v>35.09842927368895</v>
       </c>
       <c r="H24">
-        <v>10.95291070257604</v>
+        <v>2.340161718868748</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.745522991783451</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.64523524318542</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.8727791433173</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.461521541686417</v>
       </c>
       <c r="M24">
-        <v>22.08871148759482</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>9.89406344960307</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.54190833465618</v>
+      </c>
+      <c r="P24">
+        <v>11.56152782704523</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.01265869952486</v>
+        <v>20.57929830205131</v>
       </c>
       <c r="C25">
-        <v>15.92025815327987</v>
+        <v>16.74382462675957</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.42460851312093</v>
+        <v>15.65980548876567</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>35.49138956923066</v>
       </c>
       <c r="G25">
-        <v>36.81426358366514</v>
+        <v>32.53221345576014</v>
       </c>
       <c r="H25">
-        <v>10.42746669003867</v>
+        <v>1.865067947588982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.398183438095225</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.32397559367407</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.64001626698798</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.370818988464705</v>
       </c>
       <c r="M25">
-        <v>19.92793177911924</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.44046527204037</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>18.87764279175861</v>
+      </c>
+      <c r="P25">
+        <v>11.83588328337604</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.91847076495506</v>
+        <v>18.40542710403392</v>
       </c>
       <c r="C2">
-        <v>15.34557528557654</v>
+        <v>15.71227900650125</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.80377699832379</v>
+        <v>15.09494345943789</v>
       </c>
       <c r="F2">
-        <v>33.62386229857649</v>
+        <v>33.11860378288536</v>
       </c>
       <c r="G2">
-        <v>30.77528739525427</v>
+        <v>28.60395636026027</v>
       </c>
       <c r="H2">
-        <v>1.622152408280267</v>
+        <v>1.641334270453761</v>
       </c>
       <c r="I2">
-        <v>3.129533103904893</v>
+        <v>3.11708539805884</v>
       </c>
       <c r="J2">
-        <v>10.13607277117216</v>
+        <v>10.36048658705139</v>
       </c>
       <c r="K2">
-        <v>14.56773385256041</v>
+        <v>13.88165347236847</v>
       </c>
       <c r="L2">
-        <v>5.302692970204714</v>
+        <v>12.379636380241</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.291267465649122</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.278166158897683</v>
       </c>
       <c r="O2">
-        <v>17.54769828091545</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.04059882826994</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.6553395869826</v>
+      </c>
+      <c r="R2">
+        <v>12.05238647572634</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.66391389576733</v>
+        <v>17.2346006862073</v>
       </c>
       <c r="C3">
-        <v>14.36372369897664</v>
+        <v>14.66355379337363</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.21715235368545</v>
+        <v>14.48841508857992</v>
       </c>
       <c r="F3">
-        <v>32.28192865624632</v>
+        <v>31.84650626746769</v>
       </c>
       <c r="G3">
-        <v>29.44780731792576</v>
+        <v>27.47352520805489</v>
       </c>
       <c r="H3">
-        <v>1.887534092481326</v>
+        <v>1.896023593660993</v>
       </c>
       <c r="I3">
-        <v>2.943132172825878</v>
+        <v>2.956821713386048</v>
       </c>
       <c r="J3">
-        <v>9.994763705191509</v>
+        <v>10.22784017926506</v>
       </c>
       <c r="K3">
-        <v>14.48809402452487</v>
+        <v>13.87366745260398</v>
       </c>
       <c r="L3">
-        <v>5.25178409672983</v>
+        <v>12.49390358717675</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.137429519215233</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.226982210165778</v>
       </c>
       <c r="O3">
-        <v>16.5963389056672</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.18443702992473</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.69340352022889</v>
+      </c>
+      <c r="R3">
+        <v>12.17039435276645</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.84439671725966</v>
+        <v>16.46942322871939</v>
       </c>
       <c r="C4">
-        <v>13.73022187652425</v>
+        <v>13.98591838461755</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.84515634244062</v>
+        <v>14.10455825533203</v>
       </c>
       <c r="F4">
-        <v>31.43746279827572</v>
+        <v>31.04591333337655</v>
       </c>
       <c r="G4">
-        <v>28.61589875827515</v>
+        <v>26.76760890010649</v>
       </c>
       <c r="H4">
-        <v>2.056201701798842</v>
+        <v>2.057996772683453</v>
       </c>
       <c r="I4">
-        <v>2.825537413940979</v>
+        <v>2.855796190784601</v>
       </c>
       <c r="J4">
-        <v>9.910790558542471</v>
+        <v>10.14608826494423</v>
       </c>
       <c r="K4">
-        <v>14.4438113948928</v>
+        <v>13.87153280138147</v>
       </c>
       <c r="L4">
-        <v>5.218981218820718</v>
+        <v>12.56341200972579</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.065956493240888</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.194011722814741</v>
       </c>
       <c r="O4">
-        <v>15.98561241242735</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.27449150479219</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.07566763326061</v>
+      </c>
+      <c r="R4">
+        <v>12.24513692109706</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.49074461268431</v>
+        <v>16.13894990555873</v>
       </c>
       <c r="C5">
-        <v>13.47097858196193</v>
+        <v>13.70784380672257</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.69482898606154</v>
+        <v>13.94947738752728</v>
       </c>
       <c r="F5">
-        <v>31.08191535701143</v>
+        <v>30.70869997385306</v>
       </c>
       <c r="G5">
-        <v>28.25113049153134</v>
+        <v>26.45594594470204</v>
       </c>
       <c r="H5">
-        <v>2.126604644365064</v>
+        <v>2.125618002795293</v>
       </c>
       <c r="I5">
-        <v>2.777187178113285</v>
+        <v>2.81461744249698</v>
       </c>
       <c r="J5">
-        <v>9.87327265895097</v>
+        <v>10.10895528330833</v>
       </c>
       <c r="K5">
-        <v>14.4188008170827</v>
+        <v>13.86386375939207</v>
       </c>
       <c r="L5">
-        <v>5.204855819637394</v>
+        <v>12.58527971523461</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.037727287757173</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.17986162439502</v>
       </c>
       <c r="O5">
-        <v>15.73158270052803</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.31172322063131</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.81861526920502</v>
+      </c>
+      <c r="R5">
+        <v>12.27645405881446</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42239672463021</v>
+        <v>16.07483949880648</v>
       </c>
       <c r="C6">
-        <v>13.43557095034728</v>
+        <v>13.669172893687</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.67475271669934</v>
+        <v>13.92856974970502</v>
       </c>
       <c r="F6">
-        <v>31.0144334982305</v>
+        <v>30.64456942320692</v>
       </c>
       <c r="G6">
-        <v>28.16347603416009</v>
+        <v>26.37794985997989</v>
       </c>
       <c r="H6">
-        <v>2.138635046885026</v>
+        <v>2.137161608724897</v>
       </c>
       <c r="I6">
-        <v>2.769769794479182</v>
+        <v>2.808785376553186</v>
       </c>
       <c r="J6">
-        <v>9.862189679337654</v>
+        <v>10.09819510137057</v>
       </c>
       <c r="K6">
-        <v>14.40483685790004</v>
+        <v>13.85352708284564</v>
       </c>
       <c r="L6">
-        <v>5.202040545565191</v>
+        <v>12.58121925996134</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.027268518796857</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.177095428342496</v>
       </c>
       <c r="O6">
-        <v>15.69067318469392</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.31805096414152</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.77714306892361</v>
+      </c>
+      <c r="R6">
+        <v>12.28204963095633</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81602699320064</v>
+        <v>16.43236425708973</v>
       </c>
       <c r="C7">
-        <v>13.74837864676498</v>
+        <v>13.98641446736254</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.856749935694</v>
+        <v>14.12676743249066</v>
       </c>
       <c r="F7">
-        <v>31.41069520067724</v>
+        <v>31.00698949402629</v>
       </c>
       <c r="G7">
-        <v>28.53867763453609</v>
+        <v>26.77331582884869</v>
       </c>
       <c r="H7">
-        <v>2.057821216566627</v>
+        <v>2.060006327347873</v>
       </c>
       <c r="I7">
-        <v>2.826321168863169</v>
+        <v>2.856892766305003</v>
       </c>
       <c r="J7">
-        <v>9.896972281538229</v>
+        <v>10.07967696909602</v>
       </c>
       <c r="K7">
-        <v>14.41653862402586</v>
+        <v>13.8356742508546</v>
       </c>
       <c r="L7">
-        <v>5.217590544863477</v>
+        <v>12.53403224037857</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.0406769558655</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.19216713320185</v>
       </c>
       <c r="O7">
-        <v>15.98664698141667</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.2753949284975</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.07595966532972</v>
+      </c>
+      <c r="R7">
+        <v>12.24724612353213</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.46718616013826</v>
+        <v>17.95314792648952</v>
       </c>
       <c r="C8">
-        <v>15.03983434025371</v>
+        <v>15.33115049352303</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.62116672612824</v>
+        <v>14.93974475744032</v>
       </c>
       <c r="F8">
-        <v>33.13800811295041</v>
+        <v>32.61591527444047</v>
       </c>
       <c r="G8">
-        <v>30.23053070046354</v>
+        <v>28.38257226080944</v>
       </c>
       <c r="H8">
-        <v>1.713337937343095</v>
+        <v>1.730300822492242</v>
       </c>
       <c r="I8">
-        <v>3.067216781382464</v>
+        <v>3.062495041267958</v>
       </c>
       <c r="J8">
-        <v>10.0694759189926</v>
+        <v>10.12517235556618</v>
       </c>
       <c r="K8">
-        <v>14.50394148417321</v>
+        <v>13.80998534749454</v>
       </c>
       <c r="L8">
-        <v>5.283937361977065</v>
+        <v>12.36593573553765</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.181226372414979</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.257653555291953</v>
       </c>
       <c r="O8">
-        <v>17.2307328681831</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.09073573805153</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.33288038381641</v>
+      </c>
+      <c r="R8">
+        <v>12.09706876623056</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.35510349565766</v>
+        <v>20.64276419873189</v>
       </c>
       <c r="C9">
-        <v>17.29572114441799</v>
+        <v>17.73056027525415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.99997391141305</v>
+        <v>16.37545118915077</v>
       </c>
       <c r="F9">
-        <v>36.38344518506349</v>
+        <v>35.68578499375645</v>
       </c>
       <c r="G9">
-        <v>33.51871405705029</v>
+        <v>31.25139527183508</v>
       </c>
       <c r="H9">
-        <v>2.028654382386148</v>
+        <v>1.986313523816377</v>
       </c>
       <c r="I9">
-        <v>3.514321679629016</v>
+        <v>3.445550108274672</v>
       </c>
       <c r="J9">
-        <v>10.45303146105898</v>
+        <v>10.42705480281704</v>
       </c>
       <c r="K9">
-        <v>14.76176284538648</v>
+        <v>13.86734304114132</v>
       </c>
       <c r="L9">
-        <v>5.403995386664012</v>
+        <v>12.09746083005006</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.694668997084557</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.377923334461082</v>
       </c>
       <c r="O9">
-        <v>19.44635215620421</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.74069836670347</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.57159258221623</v>
+      </c>
+      <c r="R9">
+        <v>11.81595263080781</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.22018148640414</v>
+        <v>22.33731719613118</v>
       </c>
       <c r="C10">
-        <v>18.780812549724</v>
+        <v>19.22516090914622</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.69177029173182</v>
+        <v>17.15110920496253</v>
       </c>
       <c r="F10">
-        <v>38.30089438906001</v>
+        <v>37.42531493733328</v>
       </c>
       <c r="G10">
-        <v>35.59410154902673</v>
+        <v>33.45360113591886</v>
       </c>
       <c r="H10">
-        <v>2.439200055498221</v>
+        <v>2.376672382628415</v>
       </c>
       <c r="I10">
-        <v>3.825184044573038</v>
+        <v>3.709137696928175</v>
       </c>
       <c r="J10">
-        <v>10.7010391278793</v>
+        <v>10.32165520932758</v>
       </c>
       <c r="K10">
-        <v>14.90038253112415</v>
+        <v>13.80227337556334</v>
       </c>
       <c r="L10">
-        <v>5.470855254445629</v>
+        <v>11.81282511346376</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.056719308667436</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.446263795209457</v>
       </c>
       <c r="O10">
-        <v>20.76317666398638</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.49895442009678</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.89863171727674</v>
+      </c>
+      <c r="R10">
+        <v>11.63917191134935</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.86336804577405</v>
+        <v>22.88292457040697</v>
       </c>
       <c r="C11">
-        <v>19.15082626588628</v>
+        <v>19.42462506946436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.84759404028795</v>
+        <v>15.31701800355792</v>
       </c>
       <c r="F11">
-        <v>36.26703759889481</v>
+        <v>35.27033392673427</v>
       </c>
       <c r="G11">
-        <v>34.69077260923039</v>
+        <v>33.43103635973664</v>
       </c>
       <c r="H11">
-        <v>3.188820914598697</v>
+        <v>3.134755921278087</v>
       </c>
       <c r="I11">
-        <v>3.925379147299757</v>
+        <v>3.790382257564146</v>
       </c>
       <c r="J11">
-        <v>10.44203454732883</v>
+        <v>9.49903083936252</v>
       </c>
       <c r="K11">
-        <v>14.37036215368433</v>
+        <v>13.18505383029627</v>
       </c>
       <c r="L11">
-        <v>5.437724968677736</v>
+        <v>11.29928014470607</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.713539583051986</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.450176373966735</v>
       </c>
       <c r="O11">
-        <v>19.83923349114015</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.47134324446331</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.96623248233007</v>
+      </c>
+      <c r="R11">
+        <v>11.68731988626613</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.05587461545207</v>
+        <v>23.0535354524784</v>
       </c>
       <c r="C12">
-        <v>19.13383702929419</v>
+        <v>19.30793023527495</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.29239013583812</v>
+        <v>13.68353240673343</v>
       </c>
       <c r="F12">
-        <v>34.15181209941554</v>
+        <v>33.13005532631168</v>
       </c>
       <c r="G12">
-        <v>33.56576965336398</v>
+        <v>32.78844680901153</v>
       </c>
       <c r="H12">
-        <v>4.347769862838192</v>
+        <v>4.308051117372783</v>
       </c>
       <c r="I12">
-        <v>3.94568587091061</v>
+        <v>3.804623294339982</v>
       </c>
       <c r="J12">
-        <v>10.18315768082474</v>
+        <v>9.028695625622207</v>
       </c>
       <c r="K12">
-        <v>13.92615900049173</v>
+        <v>12.74967533767705</v>
       </c>
       <c r="L12">
-        <v>5.474803393546903</v>
+        <v>10.98334554582361</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.39826753290393</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.521952632136359</v>
       </c>
       <c r="O12">
-        <v>18.76713118526434</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.5139137461496</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.88688328433843</v>
+      </c>
+      <c r="R12">
+        <v>11.77436895515385</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89268960146519</v>
+        <v>22.94509158844329</v>
       </c>
       <c r="C13">
-        <v>18.84271240873328</v>
+        <v>18.99455167072786</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.91736876880955</v>
+        <v>12.14449052994228</v>
       </c>
       <c r="F13">
-        <v>31.77149635674959</v>
+        <v>30.82479013548138</v>
       </c>
       <c r="G13">
-        <v>32.07239344340611</v>
+        <v>31.34064219673422</v>
       </c>
       <c r="H13">
-        <v>5.608545951710933</v>
+        <v>5.580555457468173</v>
       </c>
       <c r="I13">
-        <v>3.907714043478645</v>
+        <v>3.773035256043618</v>
       </c>
       <c r="J13">
-        <v>9.885686325697668</v>
+        <v>8.868536664942503</v>
       </c>
       <c r="K13">
-        <v>13.47793574929795</v>
+        <v>12.41227110276312</v>
       </c>
       <c r="L13">
-        <v>5.562520509748852</v>
+        <v>10.77893181226397</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.073980674518905</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.636553476887197</v>
       </c>
       <c r="O13">
-        <v>17.49131996258921</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.60990597556408</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.60486905776067</v>
+      </c>
+      <c r="R13">
+        <v>11.88375290099903</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61021905102672</v>
+        <v>22.73585325001369</v>
       </c>
       <c r="C14">
-        <v>18.51623242565486</v>
+        <v>18.68565972826742</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.11000627317754</v>
+        <v>11.19295276522479</v>
       </c>
       <c r="F14">
-        <v>29.96168544143264</v>
+        <v>29.11213352833358</v>
       </c>
       <c r="G14">
-        <v>30.82447530015893</v>
+        <v>29.93435236643214</v>
       </c>
       <c r="H14">
-        <v>6.526870997853433</v>
+        <v>6.505417306739876</v>
       </c>
       <c r="I14">
-        <v>3.855544947052051</v>
+        <v>3.731241323207312</v>
       </c>
       <c r="J14">
-        <v>9.655691020191238</v>
+        <v>8.879535866930242</v>
       </c>
       <c r="K14">
-        <v>13.15649130826268</v>
+        <v>12.21178384458431</v>
       </c>
       <c r="L14">
-        <v>5.654026349054525</v>
+        <v>10.67711509645764</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.837030030335122</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.739641498650705</v>
       </c>
       <c r="O14">
-        <v>16.4909000490396</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.70201926094438</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.6001935464289</v>
+      </c>
+      <c r="R14">
+        <v>11.96920922285801</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.45689403977168</v>
+        <v>22.61592401362486</v>
       </c>
       <c r="C15">
-        <v>18.38323870753548</v>
+        <v>18.57099922903296</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.93225468440796</v>
+        <v>10.97586159445632</v>
       </c>
       <c r="F15">
-        <v>29.45724122390865</v>
+        <v>28.65041910284574</v>
       </c>
       <c r="G15">
-        <v>30.41672040293096</v>
+        <v>29.40743871176437</v>
       </c>
       <c r="H15">
-        <v>6.735533795551245</v>
+        <v>6.715856665010196</v>
       </c>
       <c r="I15">
-        <v>3.830808922490932</v>
+        <v>3.712165162938588</v>
       </c>
       <c r="J15">
-        <v>9.587700024974655</v>
+        <v>8.932531890327335</v>
       </c>
       <c r="K15">
-        <v>13.06952837800908</v>
+        <v>12.17327331042969</v>
       </c>
       <c r="L15">
-        <v>5.676912154351734</v>
+        <v>10.66685364842973</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.769924009316402</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.762758890606499</v>
       </c>
       <c r="O15">
-        <v>16.20318360724096</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.73451724396534</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.31143852757205</v>
+      </c>
+      <c r="R15">
+        <v>11.99359619052881</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.70661149343471</v>
+        <v>21.99737647941637</v>
       </c>
       <c r="C16">
-        <v>17.82232255374828</v>
+        <v>18.12510276225118</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.85128200156653</v>
+        <v>10.86683477684696</v>
       </c>
       <c r="F16">
-        <v>29.00113096277087</v>
+        <v>28.35198255204941</v>
       </c>
       <c r="G16">
-        <v>29.69886742960173</v>
+        <v>28.02836902435332</v>
       </c>
       <c r="H16">
-        <v>6.457819176489381</v>
+        <v>6.442177530023277</v>
       </c>
       <c r="I16">
-        <v>3.707699972172982</v>
+        <v>3.614029566208933</v>
       </c>
       <c r="J16">
-        <v>9.525529502746313</v>
+        <v>9.390393503263452</v>
       </c>
       <c r="K16">
-        <v>13.07970155396196</v>
+        <v>12.33487470561035</v>
       </c>
       <c r="L16">
-        <v>5.626359729721486</v>
+        <v>10.84784666061173</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.742579959697188</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.694172155142994</v>
       </c>
       <c r="O16">
-        <v>15.82988446302197</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.80658952976351</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.93824683109459</v>
+      </c>
+      <c r="R16">
+        <v>12.01001372895541</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.27470771357078</v>
+        <v>21.61537902662572</v>
       </c>
       <c r="C17">
-        <v>17.56639704935441</v>
+        <v>17.92873173003613</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.19216308794624</v>
+        <v>11.25108970567007</v>
       </c>
       <c r="F17">
-        <v>29.64170452975994</v>
+        <v>29.04568245341931</v>
       </c>
       <c r="G17">
-        <v>29.83738167495724</v>
+        <v>27.84843749564365</v>
       </c>
       <c r="H17">
-        <v>5.705167202879161</v>
+        <v>5.689905433749213</v>
       </c>
       <c r="I17">
-        <v>3.640790116929865</v>
+        <v>3.559956888030551</v>
       </c>
       <c r="J17">
-        <v>9.602385499392737</v>
+        <v>9.678878356009914</v>
       </c>
       <c r="K17">
-        <v>13.25870670582711</v>
+        <v>12.55301036905789</v>
       </c>
       <c r="L17">
-        <v>5.532852801018265</v>
+        <v>11.03922395451459</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.835522485657068</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.585578723178989</v>
       </c>
       <c r="O17">
-        <v>16.09650710367981</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.8146373920753</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.20680458246739</v>
+      </c>
+      <c r="R17">
+        <v>11.98590924380475</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09577578941447</v>
+        <v>21.4359687566547</v>
       </c>
       <c r="C18">
-        <v>17.53757069491696</v>
+        <v>17.9460521870227</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.11408526121392</v>
+        <v>12.25821050971529</v>
       </c>
       <c r="F18">
-        <v>31.31741173531707</v>
+        <v>30.71384972533152</v>
       </c>
       <c r="G18">
-        <v>30.77733345186294</v>
+        <v>28.58224023674534</v>
       </c>
       <c r="H18">
-        <v>4.496233826265756</v>
+        <v>4.47745605686048</v>
       </c>
       <c r="I18">
-        <v>3.614078655401091</v>
+        <v>3.536838473923257</v>
       </c>
       <c r="J18">
-        <v>9.814791473127169</v>
+        <v>9.955414388464652</v>
       </c>
       <c r="K18">
-        <v>13.62138579092861</v>
+        <v>12.88456403605972</v>
       </c>
       <c r="L18">
-        <v>5.425839754813648</v>
+        <v>11.290594124165</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.070438040563378</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.461115442408902</v>
       </c>
       <c r="O18">
-        <v>16.94469198157597</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.77282574071585</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.05992238174795</v>
+      </c>
+      <c r="R18">
+        <v>11.9209079768188</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.10218767474792</v>
+        <v>21.40986600423681</v>
       </c>
       <c r="C19">
-        <v>17.72710268170115</v>
+        <v>18.1784063566495</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.64828549345796</v>
+        <v>13.89199931297506</v>
       </c>
       <c r="F19">
-        <v>33.65521072319959</v>
+        <v>33.00806936264438</v>
       </c>
       <c r="G19">
-        <v>32.15717053094503</v>
+        <v>29.80389436965559</v>
       </c>
       <c r="H19">
-        <v>3.167924043045584</v>
+        <v>3.13904023358128</v>
       </c>
       <c r="I19">
-        <v>3.628617957384485</v>
+        <v>3.550002819680124</v>
       </c>
       <c r="J19">
-        <v>10.09540129530937</v>
+        <v>10.22099188505979</v>
       </c>
       <c r="K19">
-        <v>14.06036932444248</v>
+        <v>13.25228351038492</v>
       </c>
       <c r="L19">
-        <v>5.370579033427262</v>
+        <v>11.55171462473195</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.371641877629186</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.384449150885388</v>
       </c>
       <c r="O19">
-        <v>18.19021900108359</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.70926559172071</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.31241726410317</v>
+      </c>
+      <c r="R19">
+        <v>11.83976022284657</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.68813785921319</v>
+        <v>21.87873089900671</v>
       </c>
       <c r="C20">
-        <v>18.45078281313556</v>
+        <v>18.93919593435784</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.5364604124247</v>
+        <v>16.94067125924752</v>
       </c>
       <c r="F20">
-        <v>37.73248342643618</v>
+        <v>36.94486320124869</v>
       </c>
       <c r="G20">
-        <v>34.86025231610538</v>
+        <v>32.45315110400531</v>
       </c>
       <c r="H20">
-        <v>2.329104078629803</v>
+        <v>2.273438420564283</v>
       </c>
       <c r="I20">
-        <v>3.749050920404091</v>
+        <v>3.651065782680687</v>
       </c>
       <c r="J20">
-        <v>10.59465926177218</v>
+        <v>10.48897032629615</v>
       </c>
       <c r="K20">
-        <v>14.7785493383421</v>
+        <v>13.78032349501739</v>
       </c>
       <c r="L20">
-        <v>5.449955346396977</v>
+        <v>11.86151439322532</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.924234083745898</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.427287461210877</v>
       </c>
       <c r="O20">
-        <v>20.42835820535624</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.5663537751414</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.56267311876429</v>
+      </c>
+      <c r="R20">
+        <v>11.68797804284254</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.08596004807536</v>
+        <v>23.0022793537983</v>
       </c>
       <c r="C21">
-        <v>19.58584830942875</v>
+        <v>19.84785983438724</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.44760088089246</v>
+        <v>18.1054469807914</v>
       </c>
       <c r="F21">
-        <v>39.69026271824601</v>
+        <v>38.55446252632697</v>
       </c>
       <c r="G21">
-        <v>36.77713776032951</v>
+        <v>35.67409556361469</v>
       </c>
       <c r="H21">
-        <v>2.666436954327593</v>
+        <v>2.587494515813376</v>
       </c>
       <c r="I21">
-        <v>3.990265332194504</v>
+        <v>3.843703252846982</v>
       </c>
       <c r="J21">
-        <v>10.86154587044368</v>
+        <v>9.577123762911171</v>
       </c>
       <c r="K21">
-        <v>15.01215327728938</v>
+        <v>13.63751080483385</v>
       </c>
       <c r="L21">
-        <v>5.521120439078282</v>
+        <v>11.58320003188175</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.137368917815932</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.484638411970729</v>
       </c>
       <c r="O21">
-        <v>21.66325410889995</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.3720092749719</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.7968669241042</v>
+      </c>
+      <c r="R21">
+        <v>11.56523030447577</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.97209516927465</v>
+        <v>23.70914765630109</v>
       </c>
       <c r="C22">
-        <v>20.26432778740373</v>
+        <v>20.3671048708012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.88089228596994</v>
+        <v>18.70953720341239</v>
       </c>
       <c r="F22">
-        <v>40.79454789403958</v>
+        <v>39.42606303714311</v>
       </c>
       <c r="G22">
-        <v>37.97407954956026</v>
+        <v>37.79047921051303</v>
       </c>
       <c r="H22">
-        <v>2.87363492672928</v>
+        <v>2.779740379303703</v>
       </c>
       <c r="I22">
-        <v>4.141616087219765</v>
+        <v>3.962642575514711</v>
       </c>
       <c r="J22">
-        <v>11.0327830188147</v>
+        <v>8.949798102867842</v>
       </c>
       <c r="K22">
-        <v>15.17038885648854</v>
+        <v>13.53439117518976</v>
       </c>
       <c r="L22">
-        <v>5.560721886189671</v>
+        <v>11.39660369889131</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.27583908885957</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.516430956859836</v>
       </c>
       <c r="O22">
-        <v>22.35000963054071</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.24775746314135</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.48168381276791</v>
+      </c>
+      <c r="R22">
+        <v>11.49401693379349</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.52311731601808</v>
+        <v>23.37342940071768</v>
       </c>
       <c r="C23">
-        <v>19.88605668374228</v>
+        <v>20.10625019643073</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.63783527106337</v>
+        <v>18.35099389574034</v>
       </c>
       <c r="F23">
-        <v>40.22821293407175</v>
+        <v>39.01068011060998</v>
       </c>
       <c r="G23">
-        <v>37.40407791919817</v>
+        <v>36.55906118723335</v>
       </c>
       <c r="H23">
-        <v>2.764051621024278</v>
+        <v>2.678894537071669</v>
       </c>
       <c r="I23">
-        <v>4.059176798683208</v>
+        <v>3.897444866295076</v>
       </c>
       <c r="J23">
-        <v>10.95537142965828</v>
+        <v>9.410328027378148</v>
       </c>
       <c r="K23">
-        <v>15.11548383078951</v>
+        <v>13.64361382855905</v>
       </c>
       <c r="L23">
-        <v>5.540886748075772</v>
+        <v>11.53069509430015</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.248889265518784</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.501642231180711</v>
       </c>
       <c r="O23">
-        <v>21.98203819622799</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.31215160409467</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.11616492557867</v>
+      </c>
+      <c r="R23">
+        <v>11.52444149368597</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.70979071083367</v>
+        <v>21.89763199632385</v>
       </c>
       <c r="C24">
-        <v>18.42989924486063</v>
+        <v>18.92444140279042</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.71222460928316</v>
+        <v>17.12229781496774</v>
       </c>
       <c r="F24">
-        <v>37.99890942164213</v>
+        <v>37.20798690402454</v>
       </c>
       <c r="G24">
-        <v>35.09842927368895</v>
+        <v>32.66355788324307</v>
       </c>
       <c r="H24">
-        <v>2.340161718868748</v>
+        <v>2.284234578650755</v>
       </c>
       <c r="I24">
-        <v>3.745522991783451</v>
+        <v>3.645437183905927</v>
       </c>
       <c r="J24">
-        <v>10.64523524318542</v>
+        <v>10.54318636937319</v>
       </c>
       <c r="K24">
-        <v>14.8727791433173</v>
+        <v>13.86491052422222</v>
       </c>
       <c r="L24">
-        <v>5.461521541686417</v>
+        <v>11.92207536613265</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.991852886988699</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.435655229427215</v>
       </c>
       <c r="O24">
-        <v>20.54190833465618</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.56152782704523</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.67708072750498</v>
+      </c>
+      <c r="R24">
+        <v>11.67820938205961</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.57929830205131</v>
+        <v>19.93149719547416</v>
       </c>
       <c r="C25">
-        <v>16.74382462675957</v>
+        <v>17.16247407438747</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.65980548876567</v>
+        <v>16.00590890634077</v>
       </c>
       <c r="F25">
-        <v>35.49138956923066</v>
+        <v>34.85812551251911</v>
       </c>
       <c r="G25">
-        <v>32.53221345576014</v>
+        <v>30.27512989593192</v>
       </c>
       <c r="H25">
-        <v>1.865067947588982</v>
+        <v>1.830339959073207</v>
       </c>
       <c r="I25">
-        <v>3.398183438095225</v>
+        <v>3.3491921441779</v>
       </c>
       <c r="J25">
-        <v>10.32397559367407</v>
+        <v>10.39721490312131</v>
       </c>
       <c r="K25">
-        <v>14.64001626698798</v>
+        <v>13.82097433137824</v>
       </c>
       <c r="L25">
-        <v>5.370818988464705</v>
+        <v>12.15070011998034</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.514958955788842</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.34576871912108</v>
       </c>
       <c r="O25">
-        <v>18.87764279175861</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.83588328337604</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.99764558669376</v>
+      </c>
+      <c r="R25">
+        <v>11.8921425997257</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
